--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" firstSheet="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -909,7 +909,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1045,6 +1045,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% — акцент1" xfId="15" builtinId="30" customBuiltin="1"/>
@@ -1098,269 +1104,1203 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="882">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="887">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1411,9 +2351,6 @@
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2034,6 +2971,56 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -13235,1176 +14222,279 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14650,19 +14740,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="881"/>
-      <tableStyleElement type="headerRow" dxfId="880"/>
-      <tableStyleElement type="totalRow" dxfId="879"/>
-      <tableStyleElement type="firstColumn" dxfId="878"/>
-      <tableStyleElement type="lastColumn" dxfId="877"/>
-      <tableStyleElement type="firstRowStripe" dxfId="876"/>
-      <tableStyleElement type="secondRowStripe" dxfId="875"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
-      <tableStyleElement type="firstTotalCell" dxfId="870"/>
-      <tableStyleElement type="lastTotalCell" dxfId="869"/>
+      <tableStyleElement type="wholeTable" dxfId="886"/>
+      <tableStyleElement type="headerRow" dxfId="885"/>
+      <tableStyleElement type="totalRow" dxfId="884"/>
+      <tableStyleElement type="firstColumn" dxfId="883"/>
+      <tableStyleElement type="lastColumn" dxfId="882"/>
+      <tableStyleElement type="firstRowStripe" dxfId="881"/>
+      <tableStyleElement type="secondRowStripe" dxfId="880"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="879"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="878"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="877"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="876"/>
+      <tableStyleElement type="firstTotalCell" dxfId="875"/>
+      <tableStyleElement type="lastTotalCell" dxfId="874"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14677,7 +14767,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="868" dataDxfId="867" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="873" dataDxfId="872" totalsRowDxfId="871">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14714,39 +14804,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="64" totalsRowDxfId="32" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="63" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" dataDxfId="62" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" dataDxfId="61" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" dataDxfId="60" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" dataDxfId="59" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" dataDxfId="58" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" dataDxfId="57" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" dataDxfId="56" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" dataDxfId="55" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" dataDxfId="54" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" dataDxfId="53" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="52" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" dataDxfId="51" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" dataDxfId="50" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="49" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" dataDxfId="48" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" dataDxfId="47" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" dataDxfId="46" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="45" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" dataDxfId="44" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" dataDxfId="43" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" dataDxfId="42" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" dataDxfId="41" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" dataDxfId="40" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" dataDxfId="39" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" dataDxfId="38" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" dataDxfId="37" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" dataDxfId="36" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" dataDxfId="35" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" dataDxfId="34" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" dataDxfId="33" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="866" totalsRowDxfId="0">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="870" totalsRowDxfId="869" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="868" totalsRowDxfId="867"/>
+    <tableColumn id="3" name="2" dataDxfId="866" totalsRowDxfId="865"/>
+    <tableColumn id="4" name="3" dataDxfId="864" totalsRowDxfId="863"/>
+    <tableColumn id="5" name="4" dataDxfId="862" totalsRowDxfId="861"/>
+    <tableColumn id="6" name="5" dataDxfId="860" totalsRowDxfId="859"/>
+    <tableColumn id="7" name="6" dataDxfId="858" totalsRowDxfId="857"/>
+    <tableColumn id="8" name="7" dataDxfId="856" totalsRowDxfId="855"/>
+    <tableColumn id="9" name="8" dataDxfId="854" totalsRowDxfId="853"/>
+    <tableColumn id="10" name="9" dataDxfId="852" totalsRowDxfId="851"/>
+    <tableColumn id="11" name="10" dataDxfId="850" totalsRowDxfId="849"/>
+    <tableColumn id="12" name="11" dataDxfId="848" totalsRowDxfId="847"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="846" totalsRowDxfId="845"/>
+    <tableColumn id="14" name="13" dataDxfId="844" totalsRowDxfId="843"/>
+    <tableColumn id="15" name="14" dataDxfId="842" totalsRowDxfId="841"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="840" totalsRowDxfId="839"/>
+    <tableColumn id="17" name="16" dataDxfId="838" totalsRowDxfId="837"/>
+    <tableColumn id="18" name="17" dataDxfId="836" totalsRowDxfId="835"/>
+    <tableColumn id="19" name="18" dataDxfId="834" totalsRowDxfId="833"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="832" totalsRowDxfId="831"/>
+    <tableColumn id="21" name="20" dataDxfId="830" totalsRowDxfId="829"/>
+    <tableColumn id="22" name="21" dataDxfId="828" totalsRowDxfId="827"/>
+    <tableColumn id="23" name="22" dataDxfId="826" totalsRowDxfId="825"/>
+    <tableColumn id="24" name="23" dataDxfId="824" totalsRowDxfId="823"/>
+    <tableColumn id="25" name="24" dataDxfId="822" totalsRowDxfId="821"/>
+    <tableColumn id="26" name="25" dataDxfId="820" totalsRowDxfId="819"/>
+    <tableColumn id="27" name="26" dataDxfId="818" totalsRowDxfId="817"/>
+    <tableColumn id="28" name="27" dataDxfId="816" totalsRowDxfId="815"/>
+    <tableColumn id="29" name="28" dataDxfId="814" totalsRowDxfId="813"/>
+    <tableColumn id="30" name="29" dataDxfId="812" totalsRowDxfId="811"/>
+    <tableColumn id="31" name="30" dataDxfId="810" totalsRowDxfId="809"/>
+    <tableColumn id="32" name="31" dataDxfId="808" totalsRowDxfId="807"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="806" totalsRowDxfId="805">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14760,41 +14850,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="313" dataDxfId="312" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="319" dataDxfId="318" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="311" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="310" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="309" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="308" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="307" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="306" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="305" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="304" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="303" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="302" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="301" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="300" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="299" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="298" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="297" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="296" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="295" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="294" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="293" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="292" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="291" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="290" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="289" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="288" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="287" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="286" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="285" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="284" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="283" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="282" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="281" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="280" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="279" totalsRowDxfId="278" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="317" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="316" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="315" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="314" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="313" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="312" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="311" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="310" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="309" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="308" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="307" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="306" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="305" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="304" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="303" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="302" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="301" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="300" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="299" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="298" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="297" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="296" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="295" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="294" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="293" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="292" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="291" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="290" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="289" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="288" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="287" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="286" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="285" totalsRowDxfId="284" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14808,43 +14898,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="277" dataDxfId="276" totalsRowDxfId="275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="283" dataDxfId="282" totalsRowDxfId="281">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="274" totalsRowDxfId="273" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="280" totalsRowDxfId="279" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="217"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="216" totalsRowDxfId="215"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="214" totalsRowDxfId="213"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="212" totalsRowDxfId="211"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="210" totalsRowDxfId="209">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="216" totalsRowDxfId="215">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14858,43 +14948,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="208" dataDxfId="207" totalsRowDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="214" dataDxfId="213" totalsRowDxfId="212">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="205" totalsRowDxfId="204" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="210" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14908,10 +14998,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="139" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="145" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="138" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="144" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -14923,45 +15013,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="865" dataDxfId="864" totalsRowDxfId="863">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="804" dataDxfId="33" totalsRowDxfId="803">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="862" totalsRowDxfId="861" dataCellStyle="Сотрудник">
-      <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="860" totalsRowDxfId="859"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="858" totalsRowDxfId="857"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="856" totalsRowDxfId="855"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="854" totalsRowDxfId="853"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="852" totalsRowDxfId="851"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="850" totalsRowDxfId="849"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="848" totalsRowDxfId="847"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="846" totalsRowDxfId="845"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="844" totalsRowDxfId="843"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="842" totalsRowDxfId="841"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="840" totalsRowDxfId="839"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="838" totalsRowDxfId="837"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="836" totalsRowDxfId="835"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="834" totalsRowDxfId="833"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="832" totalsRowDxfId="831"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="830" totalsRowDxfId="829"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="828" totalsRowDxfId="827"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="826" totalsRowDxfId="825"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="824" totalsRowDxfId="823"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="822" totalsRowDxfId="821"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="820" totalsRowDxfId="819"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="818" totalsRowDxfId="817"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="816" totalsRowDxfId="815"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="814" totalsRowDxfId="813"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="812" totalsRowDxfId="811"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="810" totalsRowDxfId="809"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="808" totalsRowDxfId="807"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="806" totalsRowDxfId="805"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="804" totalsRowDxfId="803"/>
-    <tableColumn id="31" name=" " dataDxfId="802" totalsRowDxfId="801"/>
-    <tableColumn id="32" name="  " dataDxfId="800" totalsRowDxfId="799"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="798" totalsRowDxfId="797">
-      <calculatedColumnFormula>COUNTA(Февраль[[#This Row],[1]:[29]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="66" totalsRowDxfId="32" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="65" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" dataDxfId="64" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" dataDxfId="63" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" dataDxfId="62" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" dataDxfId="61" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" dataDxfId="60" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" dataDxfId="59" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" dataDxfId="58" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" dataDxfId="57" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" dataDxfId="56" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" dataDxfId="55" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" dataDxfId="54" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" dataDxfId="53" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" dataDxfId="52" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" dataDxfId="51" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" dataDxfId="50" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" dataDxfId="49" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" dataDxfId="48" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" dataDxfId="47" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" dataDxfId="46" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" dataDxfId="45" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" dataDxfId="44" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" dataDxfId="43" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" dataDxfId="42" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" dataDxfId="41" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" dataDxfId="40" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="31" name=" " dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="  " dataDxfId="35" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="34" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -14973,43 +15059,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="796" dataDxfId="795" totalsRowDxfId="794">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="802" dataDxfId="801" totalsRowDxfId="800">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="793" totalsRowDxfId="792" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="799" totalsRowDxfId="798" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="791" totalsRowDxfId="790"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="789" totalsRowDxfId="788"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="787" totalsRowDxfId="786"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="785" totalsRowDxfId="784"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="783" totalsRowDxfId="782"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="781" totalsRowDxfId="780"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="779" totalsRowDxfId="778"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="777" totalsRowDxfId="776"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="775" totalsRowDxfId="774"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="773" totalsRowDxfId="772"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="771" totalsRowDxfId="770"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="769" totalsRowDxfId="768"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="767" totalsRowDxfId="766"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="765" totalsRowDxfId="764"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="763" totalsRowDxfId="762"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="761" totalsRowDxfId="760"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="759" totalsRowDxfId="758"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="757" totalsRowDxfId="756"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="755" totalsRowDxfId="754"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="753" totalsRowDxfId="752"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="751" totalsRowDxfId="750"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="749" totalsRowDxfId="748"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="747" totalsRowDxfId="746"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="745" totalsRowDxfId="744"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="743" totalsRowDxfId="742"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="741" totalsRowDxfId="740"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="739" totalsRowDxfId="738"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="737" totalsRowDxfId="736"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="735" totalsRowDxfId="734"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="733" totalsRowDxfId="732"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="731" totalsRowDxfId="730"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="729" totalsRowDxfId="728">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="797" totalsRowDxfId="796"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="795" totalsRowDxfId="794"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="793" totalsRowDxfId="792"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="791" totalsRowDxfId="790"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="789" totalsRowDxfId="788"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="787" totalsRowDxfId="786"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="785" totalsRowDxfId="784"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="783" totalsRowDxfId="782"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="781" totalsRowDxfId="780"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="779" totalsRowDxfId="778"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="777" totalsRowDxfId="776"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="775" totalsRowDxfId="774"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="773" totalsRowDxfId="772"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="771" totalsRowDxfId="770"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="769" totalsRowDxfId="768"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="767" totalsRowDxfId="766"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="765" totalsRowDxfId="764"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="763" totalsRowDxfId="762"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="761" totalsRowDxfId="760"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="759" totalsRowDxfId="758"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="757" totalsRowDxfId="756"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="755" totalsRowDxfId="754"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="753" totalsRowDxfId="752"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="751" totalsRowDxfId="750"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="749" totalsRowDxfId="748"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="747" totalsRowDxfId="746"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="745" totalsRowDxfId="744"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="743" totalsRowDxfId="742"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="741" totalsRowDxfId="740"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="739" totalsRowDxfId="738"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="737" totalsRowDxfId="736"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="735" totalsRowDxfId="734">
       <calculatedColumnFormula>COUNTA(Март[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15023,45 +15109,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="727" dataDxfId="726" totalsRowDxfId="725">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="733" dataDxfId="732" totalsRowDxfId="731">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="724" totalsRowDxfId="723" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="730" totalsRowDxfId="729" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="672" totalsRowDxfId="671"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="670" totalsRowDxfId="669"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="668" totalsRowDxfId="667"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="666" totalsRowDxfId="665"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="664" totalsRowDxfId="663"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="662" totalsRowDxfId="661">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="672" totalsRowDxfId="671"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="670" totalsRowDxfId="669"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="668" totalsRowDxfId="667">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="660" totalsRowDxfId="659">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="666" totalsRowDxfId="665">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15075,43 +15161,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="658" dataDxfId="657" totalsRowDxfId="656">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="664" dataDxfId="663" totalsRowDxfId="662">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="655" totalsRowDxfId="654" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="661" totalsRowDxfId="660" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="597" totalsRowDxfId="596"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="595" totalsRowDxfId="594"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="593" totalsRowDxfId="592"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="591" totalsRowDxfId="590">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="597" totalsRowDxfId="596">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15125,43 +15211,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="589" dataDxfId="588" totalsRowDxfId="587">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="595" dataDxfId="594" totalsRowDxfId="593">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="586" totalsRowDxfId="585" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="592" totalsRowDxfId="591" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="525"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="524" totalsRowDxfId="523"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="522" totalsRowDxfId="521">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="528" totalsRowDxfId="527">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15175,43 +15261,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="520" dataDxfId="519" totalsRowDxfId="518">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="526" dataDxfId="525" totalsRowDxfId="524">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="517" totalsRowDxfId="516" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="523" totalsRowDxfId="522" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="459" totalsRowDxfId="458"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="457" totalsRowDxfId="456"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="455" totalsRowDxfId="454"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="453" totalsRowDxfId="452">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="459" totalsRowDxfId="458">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15225,43 +15311,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="451" dataDxfId="450" totalsRowDxfId="449">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="457" dataDxfId="456" totalsRowDxfId="455">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="448" totalsRowDxfId="447" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="454" totalsRowDxfId="453" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="384" totalsRowDxfId="383">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="390" totalsRowDxfId="389">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15275,43 +15361,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="382" dataDxfId="381" totalsRowDxfId="380">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="388" dataDxfId="387" totalsRowDxfId="386">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="379" totalsRowDxfId="378" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="385" totalsRowDxfId="384" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="317" totalsRowDxfId="316"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="315" totalsRowDxfId="314">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="321" totalsRowDxfId="320">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15557,8 +15643,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16827,19 +16913,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16861,19 +16947,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18155,19 +18241,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19521,19 +19607,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19557,19 +19643,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="80" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20916,19 +21002,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21127,10 +21213,10 @@
     <tabColor theme="2" tint="-0.749992370372631"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21461,32 +21547,22 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -21505,32 +21581,25 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="9">
-        <f>COUNTA(Февраль[[#This Row],[1]:[29]])</f>
-        <v>5</v>
-      </c>
+      <c r="AH7" s="29"/>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>4</v>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -21539,34 +21608,23 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="9">
-        <f>COUNTA(Февраль[[#This Row],[1]:[29]])</f>
-        <v>7</v>
-      </c>
+      <c r="AH8" s="29"/>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
+      <c r="B9" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -21576,14 +21634,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -21599,20 +21661,15 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="9">
-        <f>COUNTA(Февраль[[#This Row],[1]:[29]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>6</v>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -21623,15 +21680,11 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -21641,20 +21694,15 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="9">
-        <f>COUNTA(Февраль[[#This Row],[1]:[29]])</f>
-        <v>4</v>
-      </c>
+      <c r="AH10" s="29"/>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>7</v>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -21663,18 +21711,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -21687,9 +21727,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -21697,138 +21735,545 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="9">
-        <f>COUNTA(Февраль[[#This Row],[1]:[29]])</f>
-        <v>5</v>
-      </c>
+      <c r="AH11" s="29"/>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="str">
-        <f>ИмяМесяца&amp;" Итог"</f>
-        <v>Февраль Итог</v>
-      </c>
-      <c r="C12" s="12">
-        <f>SUBTOTAL(103,Февраль[1])</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <f>SUBTOTAL(103,Февраль[2])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <f>SUBTOTAL(103,Февраль[3])</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="12">
-        <f>SUBTOTAL(103,Февраль[4])</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUBTOTAL(103,Февраль[5])</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUBTOTAL(103,Февраль[6])</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="12">
-        <f>SUBTOTAL(103,Февраль[7])</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <f>SUBTOTAL(103,Февраль[8])</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <f>SUBTOTAL(103,Февраль[9])</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="12">
-        <f>SUBTOTAL(103,Февраль[10])</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="12">
-        <f>SUBTOTAL(103,Февраль[11])</f>
-        <v>2</v>
-      </c>
-      <c r="N12" s="12">
-        <f>SUBTOTAL(103,Февраль[12])</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <f>SUBTOTAL(103,Февраль[13])</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="12">
-        <f>SUBTOTAL(103,Февраль[14])</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12">
-        <f>SUBTOTAL(103,Февраль[15])</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
-        <f>SUBTOTAL(103,Февраль[16])</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <f>SUBTOTAL(103,Февраль[17])</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <f>SUBTOTAL(103,Февраль[18])</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="12">
-        <f>SUBTOTAL(103,Февраль[19])</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <f>SUBTOTAL(103,Февраль[20])</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="12">
-        <f>SUBTOTAL(103,Февраль[21])</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
-        <f>SUBTOTAL(103,Февраль[22])</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12">
-        <f>SUBTOTAL(103,Февраль[23])</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
-        <f>SUBTOTAL(103,Февраль[24])</f>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="12">
-        <f>SUBTOTAL(103,Февраль[25])</f>
-        <v>1</v>
-      </c>
-      <c r="AB12" s="12">
-        <f>SUBTOTAL(103,Февраль[26])</f>
-        <v>1</v>
-      </c>
-      <c r="AC12" s="12">
-        <f>SUBTOTAL(103,Февраль[27])</f>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="12">
-        <f>SUBTOTAL(103,Февраль[28])</f>
-        <v>1</v>
-      </c>
-      <c r="AE12" s="12">
-        <f>SUBTOTAL(103,Февраль[29])</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12">
-        <f>SUBTOTAL(109,Февраль[Всего дней])</f>
-        <v>21</v>
-      </c>
+      <c r="B12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21841,38 +22286,38 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="132" priority="16">
+    <cfRule type="expression" dxfId="133" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="131" priority="15">
+    <cfRule type="expression" dxfId="132" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG11">
+  <conditionalFormatting sqref="C7:AG24">
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="129" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="C7:AG24">
+    <cfRule type="expression" dxfId="130" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH11">
+  <conditionalFormatting sqref="AH7:AH24">
     <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
@@ -21925,19 +22370,9 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH7:AH11</xm:sqref>
+          <xm:sqref>AH7:AH24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="232" yWindow="365" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Имена сотрудников'!$B$4:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -22637,19 +23072,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23413,19 +23848,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="120" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24192,19 +24627,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="115" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24968,19 +25403,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25747,19 +26182,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26526,19 +26961,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27302,19 +27737,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="95" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1039,17 +1039,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1104,7 +1104,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="887">
+  <dxfs count="882">
     <dxf>
       <font>
         <b val="0"/>
@@ -2159,918 +2159,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4486,6 +3574,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5882,6 +5020,106 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6027,6 +5265,56 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7201,6 +6489,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8371,6 +7709,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9541,6 +8929,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10712,6 +10150,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11882,6 +11370,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -13053,6 +12591,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -14222,268 +13810,182 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -14492,6 +13994,354 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -14503,6 +14353,106 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14740,19 +14690,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="886"/>
-      <tableStyleElement type="headerRow" dxfId="885"/>
-      <tableStyleElement type="totalRow" dxfId="884"/>
-      <tableStyleElement type="firstColumn" dxfId="883"/>
-      <tableStyleElement type="lastColumn" dxfId="882"/>
-      <tableStyleElement type="firstRowStripe" dxfId="881"/>
-      <tableStyleElement type="secondRowStripe" dxfId="880"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="879"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="878"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="877"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="876"/>
-      <tableStyleElement type="firstTotalCell" dxfId="875"/>
-      <tableStyleElement type="lastTotalCell" dxfId="874"/>
+      <tableStyleElement type="wholeTable" dxfId="881"/>
+      <tableStyleElement type="headerRow" dxfId="880"/>
+      <tableStyleElement type="totalRow" dxfId="879"/>
+      <tableStyleElement type="firstColumn" dxfId="878"/>
+      <tableStyleElement type="lastColumn" dxfId="877"/>
+      <tableStyleElement type="firstRowStripe" dxfId="876"/>
+      <tableStyleElement type="secondRowStripe" dxfId="875"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
+      <tableStyleElement type="firstTotalCell" dxfId="870"/>
+      <tableStyleElement type="lastTotalCell" dxfId="869"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14767,7 +14717,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="873" dataDxfId="872" totalsRowDxfId="871">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14804,39 +14754,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="870" totalsRowDxfId="869" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="868" totalsRowDxfId="867"/>
-    <tableColumn id="3" name="2" dataDxfId="866" totalsRowDxfId="865"/>
-    <tableColumn id="4" name="3" dataDxfId="864" totalsRowDxfId="863"/>
-    <tableColumn id="5" name="4" dataDxfId="862" totalsRowDxfId="861"/>
-    <tableColumn id="6" name="5" dataDxfId="860" totalsRowDxfId="859"/>
-    <tableColumn id="7" name="6" dataDxfId="858" totalsRowDxfId="857"/>
-    <tableColumn id="8" name="7" dataDxfId="856" totalsRowDxfId="855"/>
-    <tableColumn id="9" name="8" dataDxfId="854" totalsRowDxfId="853"/>
-    <tableColumn id="10" name="9" dataDxfId="852" totalsRowDxfId="851"/>
-    <tableColumn id="11" name="10" dataDxfId="850" totalsRowDxfId="849"/>
-    <tableColumn id="12" name="11" dataDxfId="848" totalsRowDxfId="847"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="846" totalsRowDxfId="845"/>
-    <tableColumn id="14" name="13" dataDxfId="844" totalsRowDxfId="843"/>
-    <tableColumn id="15" name="14" dataDxfId="842" totalsRowDxfId="841"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="840" totalsRowDxfId="839"/>
-    <tableColumn id="17" name="16" dataDxfId="838" totalsRowDxfId="837"/>
-    <tableColumn id="18" name="17" dataDxfId="836" totalsRowDxfId="835"/>
-    <tableColumn id="19" name="18" dataDxfId="834" totalsRowDxfId="833"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="832" totalsRowDxfId="831"/>
-    <tableColumn id="21" name="20" dataDxfId="830" totalsRowDxfId="829"/>
-    <tableColumn id="22" name="21" dataDxfId="828" totalsRowDxfId="827"/>
-    <tableColumn id="23" name="22" dataDxfId="826" totalsRowDxfId="825"/>
-    <tableColumn id="24" name="23" dataDxfId="824" totalsRowDxfId="823"/>
-    <tableColumn id="25" name="24" dataDxfId="822" totalsRowDxfId="821"/>
-    <tableColumn id="26" name="25" dataDxfId="820" totalsRowDxfId="819"/>
-    <tableColumn id="27" name="26" dataDxfId="818" totalsRowDxfId="817"/>
-    <tableColumn id="28" name="27" dataDxfId="816" totalsRowDxfId="815"/>
-    <tableColumn id="29" name="28" dataDxfId="814" totalsRowDxfId="813"/>
-    <tableColumn id="30" name="29" dataDxfId="812" totalsRowDxfId="811"/>
-    <tableColumn id="31" name="30" dataDxfId="810" totalsRowDxfId="809"/>
-    <tableColumn id="32" name="31" dataDxfId="808" totalsRowDxfId="807"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="806" totalsRowDxfId="805">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
+    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
+    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
+    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
+    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
+    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
+    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
+    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
+    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
+    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14850,41 +14800,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="319" dataDxfId="318" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="317" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="316" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="315" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="314" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="313" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="312" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="311" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="310" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="309" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="308" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="307" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="306" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="305" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="304" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="303" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="302" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="301" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="300" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="299" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="298" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="297" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="296" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="295" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="294" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="293" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="292" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="291" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="290" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="289" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="288" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="287" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="286" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="285" totalsRowDxfId="284" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14898,43 +14848,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="283" dataDxfId="282" totalsRowDxfId="281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="280" totalsRowDxfId="279" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="217"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="216" totalsRowDxfId="215">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14948,43 +14898,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="214" dataDxfId="213" totalsRowDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="210" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14998,10 +14948,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="145" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="144" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15013,41 +14963,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="804" dataDxfId="33" totalsRowDxfId="803">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="66" totalsRowDxfId="32" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="65" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" dataDxfId="64" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" dataDxfId="63" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" dataDxfId="62" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" dataDxfId="61" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" dataDxfId="60" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" dataDxfId="59" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" dataDxfId="58" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" dataDxfId="57" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" dataDxfId="56" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" dataDxfId="55" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" dataDxfId="54" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" dataDxfId="53" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" dataDxfId="52" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" dataDxfId="51" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" dataDxfId="50" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" dataDxfId="49" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" dataDxfId="48" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" dataDxfId="47" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" dataDxfId="46" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" dataDxfId="45" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" dataDxfId="44" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" dataDxfId="43" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" dataDxfId="42" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" dataDxfId="41" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" dataDxfId="40" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" dataDxfId="39" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" dataDxfId="38" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" dataDxfId="37" totalsRowDxfId="3"/>
-    <tableColumn id="31" name=" " dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="  " dataDxfId="35" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="34" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="32" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="778" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" dataDxfId="777" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" dataDxfId="776" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" dataDxfId="775" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" dataDxfId="774" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" dataDxfId="773" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" dataDxfId="772" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" dataDxfId="771" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" dataDxfId="770" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" dataDxfId="769" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" dataDxfId="768" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" dataDxfId="767" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" dataDxfId="766" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" dataDxfId="765" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" dataDxfId="764" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" dataDxfId="763" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" dataDxfId="762" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" dataDxfId="761" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" dataDxfId="760" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" dataDxfId="759" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" dataDxfId="758" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" dataDxfId="757" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" dataDxfId="756" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" dataDxfId="755" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" dataDxfId="754" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" dataDxfId="753" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" dataDxfId="751" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" dataDxfId="750" totalsRowDxfId="3"/>
+    <tableColumn id="31" name=" " dataDxfId="749" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="  " dataDxfId="748" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="747" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15059,43 +15009,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="802" dataDxfId="801" totalsRowDxfId="800">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="741" dataDxfId="740" totalsRowDxfId="739">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="799" totalsRowDxfId="798" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="738" totalsRowDxfId="737" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="797" totalsRowDxfId="796"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="795" totalsRowDxfId="794"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="793" totalsRowDxfId="792"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="791" totalsRowDxfId="790"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="789" totalsRowDxfId="788"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="787" totalsRowDxfId="786"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="785" totalsRowDxfId="784"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="783" totalsRowDxfId="782"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="781" totalsRowDxfId="780"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="779" totalsRowDxfId="778"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="777" totalsRowDxfId="776"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="775" totalsRowDxfId="774"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="773" totalsRowDxfId="772"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="771" totalsRowDxfId="770"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="769" totalsRowDxfId="768"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="767" totalsRowDxfId="766"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="765" totalsRowDxfId="764"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="763" totalsRowDxfId="762"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="761" totalsRowDxfId="760"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="759" totalsRowDxfId="758"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="757" totalsRowDxfId="756"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="755" totalsRowDxfId="754"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="753" totalsRowDxfId="752"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="751" totalsRowDxfId="750"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="749" totalsRowDxfId="748"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="747" totalsRowDxfId="746"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="745" totalsRowDxfId="744"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="743" totalsRowDxfId="742"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="741" totalsRowDxfId="740"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="739" totalsRowDxfId="738"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="737" totalsRowDxfId="736"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="735" totalsRowDxfId="734">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="736" totalsRowDxfId="735"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="734" totalsRowDxfId="733"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="674" totalsRowDxfId="673">
       <calculatedColumnFormula>COUNTA(Март[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15109,45 +15059,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="733" dataDxfId="732" totalsRowDxfId="731">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="667" dataDxfId="666" totalsRowDxfId="665">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="730" totalsRowDxfId="729" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="664" totalsRowDxfId="663" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="672" totalsRowDxfId="671"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="670" totalsRowDxfId="669"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="668" totalsRowDxfId="667">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="602" totalsRowDxfId="601">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="666" totalsRowDxfId="665">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="600" totalsRowDxfId="599">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15161,43 +15111,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="664" dataDxfId="663" totalsRowDxfId="662">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="661" totalsRowDxfId="660" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="597" totalsRowDxfId="596">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15211,43 +15161,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="595" dataDxfId="594" totalsRowDxfId="593">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="592" totalsRowDxfId="591" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="528" totalsRowDxfId="527">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15261,43 +15211,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="526" dataDxfId="525" totalsRowDxfId="524">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="523" totalsRowDxfId="522" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="459" totalsRowDxfId="458">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15311,43 +15261,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="457" dataDxfId="456" totalsRowDxfId="455">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="454" totalsRowDxfId="453" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="390" totalsRowDxfId="389">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15361,43 +15311,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="388" dataDxfId="387" totalsRowDxfId="386">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="385" totalsRowDxfId="384" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="321" totalsRowDxfId="320">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15670,42 +15620,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -15716,39 +15666,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <v>2022</v>
       </c>
@@ -16913,19 +16863,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16947,19 +16897,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17047,34 +16997,34 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17083,39 +17033,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -18241,19 +18191,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18350,28 +18300,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18380,39 +18330,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -19607,19 +19557,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19643,19 +19593,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="81" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19740,42 +19690,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19784,39 +19734,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21002,19 +20952,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21216,7 +21166,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21241,42 +21191,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21285,39 +21235,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21678,7 +21628,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -21832,7 +21784,9 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -21841,7 +21795,9 @@
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -21878,7 +21834,9 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -22216,7 +22174,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -22225,7 +22185,9 @@
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -22241,39 +22203,39 @@
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -22286,12 +22248,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="133" priority="16">
+    <cfRule type="expression" dxfId="789" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="132" priority="15">
+    <cfRule type="expression" dxfId="788" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22299,21 +22261,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="130" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22412,42 +22374,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22456,39 +22418,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -23072,19 +23034,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="746" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="745" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="744" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="743" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="742" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23191,42 +23153,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23235,39 +23197,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -23848,19 +23810,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23967,42 +23929,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24011,39 +23973,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -24627,19 +24589,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24746,42 +24708,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24790,39 +24752,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25403,19 +25365,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25522,42 +25484,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25566,39 +25528,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26182,19 +26144,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="106" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26301,42 +26263,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26345,39 +26307,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26961,19 +26923,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="101" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27080,42 +27042,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27124,39 +27086,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27737,19 +27699,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -529,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +915,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1045,6 +1051,9 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,7 +1113,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="882">
+  <dxfs count="892">
     <dxf>
       <font>
         <b val="0"/>
@@ -2159,6 +2168,958 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3574,56 +4535,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5020,106 +5931,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5265,56 +6076,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6489,56 +7250,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7709,56 +8420,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8929,56 +9590,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10150,56 +10761,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11370,56 +11931,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -12590,54 +13101,20 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12672,6 +13149,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12707,6 +13185,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12742,6 +13221,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12777,6 +13257,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12812,6 +13293,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12847,6 +13329,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12882,6 +13365,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12917,6 +13401,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12952,6 +13437,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12987,6 +13473,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13022,6 +13509,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13057,6 +13545,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13092,6 +13581,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13127,6 +13617,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13162,6 +13653,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13197,6 +13689,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13232,6 +13725,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13267,6 +13761,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13302,6 +13797,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13337,6 +13833,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13372,6 +13869,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13407,6 +13905,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13442,6 +13941,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13477,6 +13977,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13512,6 +14013,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13547,6 +14049,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13582,6 +14085,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13617,6 +14121,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13652,6 +14157,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13687,6 +14193,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13722,6 +14229,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13757,6 +14265,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -13791,668 +14300,301 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -14690,19 +14832,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="881"/>
-      <tableStyleElement type="headerRow" dxfId="880"/>
-      <tableStyleElement type="totalRow" dxfId="879"/>
-      <tableStyleElement type="firstColumn" dxfId="878"/>
-      <tableStyleElement type="lastColumn" dxfId="877"/>
-      <tableStyleElement type="firstRowStripe" dxfId="876"/>
-      <tableStyleElement type="secondRowStripe" dxfId="875"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
-      <tableStyleElement type="firstTotalCell" dxfId="870"/>
-      <tableStyleElement type="lastTotalCell" dxfId="869"/>
+      <tableStyleElement type="wholeTable" dxfId="891"/>
+      <tableStyleElement type="headerRow" dxfId="890"/>
+      <tableStyleElement type="totalRow" dxfId="889"/>
+      <tableStyleElement type="firstColumn" dxfId="888"/>
+      <tableStyleElement type="lastColumn" dxfId="887"/>
+      <tableStyleElement type="firstRowStripe" dxfId="886"/>
+      <tableStyleElement type="secondRowStripe" dxfId="885"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="884"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="883"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="882"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="881"/>
+      <tableStyleElement type="firstTotalCell" dxfId="880"/>
+      <tableStyleElement type="lastTotalCell" dxfId="879"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14717,7 +14859,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="878" dataDxfId="877" totalsRowDxfId="876">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14754,39 +14896,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
-    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
-    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
-    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
-    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
-    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
-    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
-    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
-    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
-    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="875" totalsRowDxfId="874" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="873" totalsRowDxfId="872"/>
+    <tableColumn id="3" name="2" dataDxfId="871" totalsRowDxfId="870"/>
+    <tableColumn id="4" name="3" dataDxfId="869" totalsRowDxfId="868"/>
+    <tableColumn id="5" name="4" dataDxfId="867" totalsRowDxfId="866"/>
+    <tableColumn id="6" name="5" dataDxfId="865" totalsRowDxfId="864"/>
+    <tableColumn id="7" name="6" dataDxfId="863" totalsRowDxfId="862"/>
+    <tableColumn id="8" name="7" dataDxfId="861" totalsRowDxfId="860"/>
+    <tableColumn id="9" name="8" dataDxfId="859" totalsRowDxfId="858"/>
+    <tableColumn id="10" name="9" dataDxfId="857" totalsRowDxfId="856"/>
+    <tableColumn id="11" name="10" dataDxfId="855" totalsRowDxfId="854"/>
+    <tableColumn id="12" name="11" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="14" name="13" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="15" name="14" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="17" name="16" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="18" name="17" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="19" name="18" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="21" name="20" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="22" name="21" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="23" name="22" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="24" name="23" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="25" name="24" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="26" name="25" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="27" name="26" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="28" name="27" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="29" name="28" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="30" name="29" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="31" name="30" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="32" name="31" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="811" totalsRowDxfId="810">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14800,41 +14942,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="323" dataDxfId="322" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="321" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="320" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="319" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="318" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="317" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="316" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="315" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="314" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="313" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="312" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="311" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="310" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="309" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="308" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="307" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="306" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="305" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="304" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="303" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="302" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="301" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="300" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="299" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="298" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="297" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="296" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="295" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="294" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="293" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="292" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="291" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="290" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="289" totalsRowDxfId="288" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14848,43 +14990,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="287" dataDxfId="286" totalsRowDxfId="285">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14898,43 +15040,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217" totalsRowDxfId="216">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14948,10 +15090,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="149" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="148" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -14963,41 +15105,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="809" dataDxfId="808" totalsRowDxfId="807">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="32" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="778" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" dataDxfId="777" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" dataDxfId="776" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" dataDxfId="775" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" dataDxfId="774" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" dataDxfId="773" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" dataDxfId="772" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" dataDxfId="771" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" dataDxfId="770" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" dataDxfId="769" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" dataDxfId="768" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" dataDxfId="767" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" dataDxfId="766" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" dataDxfId="765" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" dataDxfId="764" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" dataDxfId="763" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" dataDxfId="762" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" dataDxfId="761" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" dataDxfId="760" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" dataDxfId="759" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" dataDxfId="758" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" dataDxfId="757" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" dataDxfId="756" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" dataDxfId="755" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" dataDxfId="754" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" dataDxfId="753" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" dataDxfId="751" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" dataDxfId="750" totalsRowDxfId="3"/>
-    <tableColumn id="31" name=" " dataDxfId="749" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="  " dataDxfId="748" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="747" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="806" totalsRowDxfId="805" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="804" totalsRowDxfId="803"/>
+    <tableColumn id="3" name="2" dataDxfId="802" totalsRowDxfId="801"/>
+    <tableColumn id="4" name="3" dataDxfId="800" totalsRowDxfId="799"/>
+    <tableColumn id="5" name="4" dataDxfId="798" totalsRowDxfId="797"/>
+    <tableColumn id="6" name="5" dataDxfId="796" totalsRowDxfId="795"/>
+    <tableColumn id="7" name="6" dataDxfId="794" totalsRowDxfId="793"/>
+    <tableColumn id="8" name="7" dataDxfId="792" totalsRowDxfId="791"/>
+    <tableColumn id="9" name="8" dataDxfId="790" totalsRowDxfId="789"/>
+    <tableColumn id="10" name="9" dataDxfId="788" totalsRowDxfId="787"/>
+    <tableColumn id="11" name="10" dataDxfId="786" totalsRowDxfId="785"/>
+    <tableColumn id="12" name="11" dataDxfId="784" totalsRowDxfId="783"/>
+    <tableColumn id="13" name="12" dataDxfId="782" totalsRowDxfId="781"/>
+    <tableColumn id="14" name="13" dataDxfId="780" totalsRowDxfId="779"/>
+    <tableColumn id="15" name="14" dataDxfId="778" totalsRowDxfId="777"/>
+    <tableColumn id="16" name="15" dataDxfId="776" totalsRowDxfId="775"/>
+    <tableColumn id="17" name="16" dataDxfId="774" totalsRowDxfId="773"/>
+    <tableColumn id="18" name="17" dataDxfId="772" totalsRowDxfId="771"/>
+    <tableColumn id="19" name="18" dataDxfId="770" totalsRowDxfId="769"/>
+    <tableColumn id="20" name="19" dataDxfId="768" totalsRowDxfId="767"/>
+    <tableColumn id="21" name="20" dataDxfId="766" totalsRowDxfId="765"/>
+    <tableColumn id="22" name="21" dataDxfId="764" totalsRowDxfId="763"/>
+    <tableColumn id="23" name="22" dataDxfId="762" totalsRowDxfId="761"/>
+    <tableColumn id="24" name="23" dataDxfId="760" totalsRowDxfId="759"/>
+    <tableColumn id="25" name="24" dataDxfId="758" totalsRowDxfId="757"/>
+    <tableColumn id="26" name="25" dataDxfId="756" totalsRowDxfId="755"/>
+    <tableColumn id="27" name="26" dataDxfId="754" totalsRowDxfId="753"/>
+    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="751"/>
+    <tableColumn id="29" name="28" dataDxfId="750" totalsRowDxfId="749"/>
+    <tableColumn id="30" name="29" dataDxfId="748" totalsRowDxfId="747"/>
+    <tableColumn id="31" name=" " dataDxfId="746" totalsRowDxfId="745"/>
+    <tableColumn id="32" name="  " dataDxfId="744" totalsRowDxfId="743"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="742" totalsRowDxfId="741"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15009,45 +15151,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="741" dataDxfId="740" totalsRowDxfId="739">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="740" dataDxfId="33" totalsRowDxfId="739">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="738" totalsRowDxfId="737" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="738" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="736" totalsRowDxfId="735"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="734" totalsRowDxfId="733"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="674" totalsRowDxfId="673">
-      <calculatedColumnFormula>COUNTA(Март[[#This Row],[1]:[31]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15059,45 +15199,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="667" dataDxfId="666" totalsRowDxfId="665">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="737" dataDxfId="736" totalsRowDxfId="735">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="664" totalsRowDxfId="663" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="734" totalsRowDxfId="733" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="602" totalsRowDxfId="601">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="672" totalsRowDxfId="671">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="600" totalsRowDxfId="599">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="670" totalsRowDxfId="669">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15111,43 +15251,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="668" dataDxfId="667" totalsRowDxfId="666">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="665" totalsRowDxfId="664" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="601" totalsRowDxfId="600">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15161,43 +15301,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="599" dataDxfId="598" totalsRowDxfId="597">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="596" totalsRowDxfId="595" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="532" totalsRowDxfId="531">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15211,43 +15351,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529" totalsRowDxfId="528">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="527" totalsRowDxfId="526" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="463" totalsRowDxfId="462">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15261,43 +15401,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460" totalsRowDxfId="459">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="458" totalsRowDxfId="457" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="394" totalsRowDxfId="393">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15311,43 +15451,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="392" dataDxfId="391" totalsRowDxfId="390">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="389" totalsRowDxfId="388" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="325" totalsRowDxfId="324">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15620,42 +15760,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -15666,39 +15806,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <v>2022</v>
       </c>
@@ -16863,19 +17003,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16897,19 +17037,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16997,34 +17137,34 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17033,39 +17173,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -18191,19 +18331,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18300,28 +18440,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18330,39 +18470,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -19557,19 +19697,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19593,19 +19733,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19690,42 +19830,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19734,39 +19874,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -20952,19 +21092,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21165,8 +21305,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" zoomScale="37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21191,42 +21331,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21235,39 +21375,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21538,10 +21678,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -21564,7 +21704,9 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -21681,7 +21823,9 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -21759,7 +21903,9 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -21804,7 +21950,9 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -21843,7 +21991,9 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -21958,7 +22108,9 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -22075,7 +22227,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -22194,7 +22348,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -22248,12 +22404,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="789" priority="16">
+    <cfRule type="expression" dxfId="137" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="788" priority="15">
+    <cfRule type="expression" dxfId="136" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22261,21 +22417,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22346,10 +22502,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22374,42 +22530,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22418,39 +22574,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -22686,8 +22842,8 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -22720,14 +22876,11 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="9">
-        <f>COUNTA(Март[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH7" s="29"/>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>4</v>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -22760,14 +22913,11 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="9">
-        <f>COUNTA(Март[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH8" s="29"/>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
+      <c r="B9" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -22777,7 +22927,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -22800,14 +22952,11 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="9">
-        <f>COUNTA(Март[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>6</v>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -22840,14 +22989,11 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="9">
-        <f>COUNTA(Март[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH10" s="29"/>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>7</v>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -22880,141 +23026,631 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="9">
-        <f>COUNTA(Март[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH11" s="29"/>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Март Итог</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C25" s="44">
         <f>SUBTOTAL(103,Март[1])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D25" s="44">
         <f>SUBTOTAL(103,Март[2])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="44">
         <f>SUBTOTAL(103,Март[3])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F25" s="44">
         <f>SUBTOTAL(103,Март[4])</f>
         <v>0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G25" s="44">
         <f>SUBTOTAL(103,Март[5])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H25" s="44">
         <f>SUBTOTAL(103,Март[6])</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I25" s="44">
         <f>SUBTOTAL(103,Март[7])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J25" s="44">
         <f>SUBTOTAL(103,Март[8])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K25" s="44">
         <f>SUBTOTAL(103,Март[9])</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
+        <v>4</v>
+      </c>
+      <c r="L25" s="44">
         <f>SUBTOTAL(103,Март[10])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M25" s="44">
         <f>SUBTOTAL(103,Март[11])</f>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N25" s="44">
         <f>SUBTOTAL(103,Март[12])</f>
         <v>0</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O25" s="44">
         <f>SUBTOTAL(103,Март[13])</f>
         <v>0</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P25" s="44">
         <f>SUBTOTAL(103,Март[14])</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q25" s="44">
         <f>SUBTOTAL(103,Март[15])</f>
         <v>0</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R25" s="44">
         <f>SUBTOTAL(103,Март[16])</f>
         <v>0</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S25" s="44">
         <f>SUBTOTAL(103,Март[17])</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T25" s="44">
         <f>SUBTOTAL(103,Март[18])</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U25" s="44">
         <f>SUBTOTAL(103,Март[19])</f>
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V25" s="44">
         <f>SUBTOTAL(103,Март[20])</f>
         <v>0</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W25" s="44">
         <f>SUBTOTAL(103,Март[21])</f>
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X25" s="44">
         <f>SUBTOTAL(103,Март[22])</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y25" s="44">
         <f>SUBTOTAL(103,Март[23])</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z25" s="44">
         <f>SUBTOTAL(103,Март[24])</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA25" s="44">
         <f>SUBTOTAL(103,Март[25])</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB25" s="44">
         <f>SUBTOTAL(103,Март[26])</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC25" s="44">
         <f>SUBTOTAL(103,Март[27])</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD25" s="44">
         <f>SUBTOTAL(103,Март[28])</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE25" s="44">
         <f>SUBTOTAL(103,Март[29])</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF25" s="44">
         <f>SUBTOTAL(103,Март[30])</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG25" s="44">
         <f>SUBTOTAL(103,Март[31])</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH25" s="44">
         <f>SUBTOTAL(109,Март[Всего дней])</f>
         <v>0</v>
       </c>
@@ -23028,29 +23664,29 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AG11">
+  <conditionalFormatting sqref="C7:AG24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="746" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="3" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:AG24">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH11">
+  <conditionalFormatting sqref="AH7:AH24">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -23059,7 +23695,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C2B6C3E-666E-4369-8C57-FD32A7D03A3C}</x14:id>
+          <x14:id>{5CBDC94E-0CDE-4B81-B224-6C6CEB32DE7C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23093,7 +23729,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C2B6C3E-666E-4369-8C57-FD32A7D03A3C}">
+          <x14:cfRule type="dataBar" id="{5CBDC94E-0CDE-4B81-B224-6C6CEB32DE7C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="formula">
@@ -23103,19 +23739,9 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH7:AH11</xm:sqref>
+          <xm:sqref>AH7:AH24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Имена сотрудников'!$B$4:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -23153,42 +23779,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23197,39 +23823,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -23810,19 +24436,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="672" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23929,42 +24555,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23973,39 +24599,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -24589,19 +25215,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24708,42 +25334,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24752,39 +25378,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25365,19 +25991,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25484,42 +26110,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25528,39 +26154,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26144,19 +26770,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26263,42 +26889,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26307,39 +26933,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26923,19 +27549,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27042,42 +27668,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27086,39 +27712,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27699,19 +28325,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1113,7 +1113,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="892">
+  <dxfs count="882">
     <dxf>
       <font>
         <b val="0"/>
@@ -2168,958 +2168,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4535,6 +3583,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5931,6 +5029,106 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6076,6 +5274,56 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7250,6 +6498,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8420,6 +7718,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9590,6 +8938,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10761,6 +10159,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11931,6 +11379,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -13101,6 +12599,184 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -13114,7 +12790,61 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -14320,6 +14050,76 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14595,6 +14395,106 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14832,19 +14732,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="891"/>
-      <tableStyleElement type="headerRow" dxfId="890"/>
-      <tableStyleElement type="totalRow" dxfId="889"/>
-      <tableStyleElement type="firstColumn" dxfId="888"/>
-      <tableStyleElement type="lastColumn" dxfId="887"/>
-      <tableStyleElement type="firstRowStripe" dxfId="886"/>
-      <tableStyleElement type="secondRowStripe" dxfId="885"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="884"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="883"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="882"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="881"/>
-      <tableStyleElement type="firstTotalCell" dxfId="880"/>
-      <tableStyleElement type="lastTotalCell" dxfId="879"/>
+      <tableStyleElement type="wholeTable" dxfId="881"/>
+      <tableStyleElement type="headerRow" dxfId="880"/>
+      <tableStyleElement type="totalRow" dxfId="879"/>
+      <tableStyleElement type="firstColumn" dxfId="878"/>
+      <tableStyleElement type="lastColumn" dxfId="877"/>
+      <tableStyleElement type="firstRowStripe" dxfId="876"/>
+      <tableStyleElement type="secondRowStripe" dxfId="875"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
+      <tableStyleElement type="firstTotalCell" dxfId="870"/>
+      <tableStyleElement type="lastTotalCell" dxfId="869"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14859,7 +14759,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="878" dataDxfId="877" totalsRowDxfId="876">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14896,39 +14796,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="875" totalsRowDxfId="874" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="873" totalsRowDxfId="872"/>
-    <tableColumn id="3" name="2" dataDxfId="871" totalsRowDxfId="870"/>
-    <tableColumn id="4" name="3" dataDxfId="869" totalsRowDxfId="868"/>
-    <tableColumn id="5" name="4" dataDxfId="867" totalsRowDxfId="866"/>
-    <tableColumn id="6" name="5" dataDxfId="865" totalsRowDxfId="864"/>
-    <tableColumn id="7" name="6" dataDxfId="863" totalsRowDxfId="862"/>
-    <tableColumn id="8" name="7" dataDxfId="861" totalsRowDxfId="860"/>
-    <tableColumn id="9" name="8" dataDxfId="859" totalsRowDxfId="858"/>
-    <tableColumn id="10" name="9" dataDxfId="857" totalsRowDxfId="856"/>
-    <tableColumn id="11" name="10" dataDxfId="855" totalsRowDxfId="854"/>
-    <tableColumn id="12" name="11" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="14" name="13" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="15" name="14" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="17" name="16" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="18" name="17" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="19" name="18" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="21" name="20" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="22" name="21" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="23" name="22" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="24" name="23" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="25" name="24" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="26" name="25" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="27" name="26" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="28" name="27" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="29" name="28" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="30" name="29" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="31" name="30" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="32" name="31" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="811" totalsRowDxfId="810">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
+    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
+    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
+    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
+    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
+    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
+    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
+    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
+    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
+    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14942,41 +14842,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="323" dataDxfId="322" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="321" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="320" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="319" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="318" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="317" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="316" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="315" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="314" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="313" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="312" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="311" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="310" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="309" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="308" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="307" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="306" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="305" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="304" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="303" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="302" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="301" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="300" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="299" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="298" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="297" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="296" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="295" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="294" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="293" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="292" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="291" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="290" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="289" totalsRowDxfId="288" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14990,43 +14890,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="287" dataDxfId="286" totalsRowDxfId="285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15040,43 +14940,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217" totalsRowDxfId="216">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15090,10 +14990,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="149" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="148" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15105,41 +15005,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="809" dataDxfId="808" totalsRowDxfId="807">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="806" totalsRowDxfId="805" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="804" totalsRowDxfId="803"/>
-    <tableColumn id="3" name="2" dataDxfId="802" totalsRowDxfId="801"/>
-    <tableColumn id="4" name="3" dataDxfId="800" totalsRowDxfId="799"/>
-    <tableColumn id="5" name="4" dataDxfId="798" totalsRowDxfId="797"/>
-    <tableColumn id="6" name="5" dataDxfId="796" totalsRowDxfId="795"/>
-    <tableColumn id="7" name="6" dataDxfId="794" totalsRowDxfId="793"/>
-    <tableColumn id="8" name="7" dataDxfId="792" totalsRowDxfId="791"/>
-    <tableColumn id="9" name="8" dataDxfId="790" totalsRowDxfId="789"/>
-    <tableColumn id="10" name="9" dataDxfId="788" totalsRowDxfId="787"/>
-    <tableColumn id="11" name="10" dataDxfId="786" totalsRowDxfId="785"/>
-    <tableColumn id="12" name="11" dataDxfId="784" totalsRowDxfId="783"/>
-    <tableColumn id="13" name="12" dataDxfId="782" totalsRowDxfId="781"/>
-    <tableColumn id="14" name="13" dataDxfId="780" totalsRowDxfId="779"/>
-    <tableColumn id="15" name="14" dataDxfId="778" totalsRowDxfId="777"/>
-    <tableColumn id="16" name="15" dataDxfId="776" totalsRowDxfId="775"/>
-    <tableColumn id="17" name="16" dataDxfId="774" totalsRowDxfId="773"/>
-    <tableColumn id="18" name="17" dataDxfId="772" totalsRowDxfId="771"/>
-    <tableColumn id="19" name="18" dataDxfId="770" totalsRowDxfId="769"/>
-    <tableColumn id="20" name="19" dataDxfId="768" totalsRowDxfId="767"/>
-    <tableColumn id="21" name="20" dataDxfId="766" totalsRowDxfId="765"/>
-    <tableColumn id="22" name="21" dataDxfId="764" totalsRowDxfId="763"/>
-    <tableColumn id="23" name="22" dataDxfId="762" totalsRowDxfId="761"/>
-    <tableColumn id="24" name="23" dataDxfId="760" totalsRowDxfId="759"/>
-    <tableColumn id="25" name="24" dataDxfId="758" totalsRowDxfId="757"/>
-    <tableColumn id="26" name="25" dataDxfId="756" totalsRowDxfId="755"/>
-    <tableColumn id="27" name="26" dataDxfId="754" totalsRowDxfId="753"/>
-    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="751"/>
-    <tableColumn id="29" name="28" dataDxfId="750" totalsRowDxfId="749"/>
-    <tableColumn id="30" name="29" dataDxfId="748" totalsRowDxfId="747"/>
-    <tableColumn id="31" name=" " dataDxfId="746" totalsRowDxfId="745"/>
-    <tableColumn id="32" name="  " dataDxfId="744" totalsRowDxfId="743"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="742" totalsRowDxfId="741"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="777" totalsRowDxfId="776"/>
+    <tableColumn id="3" name="2" dataDxfId="775" totalsRowDxfId="774"/>
+    <tableColumn id="4" name="3" dataDxfId="773" totalsRowDxfId="772"/>
+    <tableColumn id="5" name="4" dataDxfId="771" totalsRowDxfId="770"/>
+    <tableColumn id="6" name="5" dataDxfId="769" totalsRowDxfId="768"/>
+    <tableColumn id="7" name="6" dataDxfId="767" totalsRowDxfId="766"/>
+    <tableColumn id="8" name="7" dataDxfId="765" totalsRowDxfId="764"/>
+    <tableColumn id="9" name="8" dataDxfId="763" totalsRowDxfId="762"/>
+    <tableColumn id="10" name="9" dataDxfId="761" totalsRowDxfId="760"/>
+    <tableColumn id="11" name="10" dataDxfId="759" totalsRowDxfId="758"/>
+    <tableColumn id="12" name="11" dataDxfId="757" totalsRowDxfId="756"/>
+    <tableColumn id="13" name="12" dataDxfId="755" totalsRowDxfId="754"/>
+    <tableColumn id="14" name="13" dataDxfId="753" totalsRowDxfId="752"/>
+    <tableColumn id="15" name="14" dataDxfId="751" totalsRowDxfId="750"/>
+    <tableColumn id="16" name="15" dataDxfId="749" totalsRowDxfId="748"/>
+    <tableColumn id="17" name="16" dataDxfId="747" totalsRowDxfId="746"/>
+    <tableColumn id="18" name="17" dataDxfId="745" totalsRowDxfId="744"/>
+    <tableColumn id="19" name="18" dataDxfId="743" totalsRowDxfId="742"/>
+    <tableColumn id="20" name="19" dataDxfId="741" totalsRowDxfId="740"/>
+    <tableColumn id="21" name="20" dataDxfId="739" totalsRowDxfId="738"/>
+    <tableColumn id="22" name="21" dataDxfId="737" totalsRowDxfId="736"/>
+    <tableColumn id="23" name="22" dataDxfId="735" totalsRowDxfId="734"/>
+    <tableColumn id="24" name="23" dataDxfId="733" totalsRowDxfId="732"/>
+    <tableColumn id="25" name="24" dataDxfId="731" totalsRowDxfId="730"/>
+    <tableColumn id="26" name="25" dataDxfId="729" totalsRowDxfId="728"/>
+    <tableColumn id="27" name="26" dataDxfId="727" totalsRowDxfId="726"/>
+    <tableColumn id="28" name="27" dataDxfId="725" totalsRowDxfId="724"/>
+    <tableColumn id="29" name="28" dataDxfId="723" totalsRowDxfId="722"/>
+    <tableColumn id="30" name="29" dataDxfId="721" totalsRowDxfId="720"/>
+    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
+    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="715" totalsRowDxfId="714"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15151,43 +15051,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="740" dataDxfId="33" totalsRowDxfId="739">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="738" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="673" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15199,45 +15099,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="737" dataDxfId="736" totalsRowDxfId="735">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="667" dataDxfId="666" totalsRowDxfId="665">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="734" totalsRowDxfId="733" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="664" totalsRowDxfId="663" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="672" totalsRowDxfId="671">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="602" totalsRowDxfId="601">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="670" totalsRowDxfId="669">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="600" totalsRowDxfId="599">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15251,43 +15151,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="668" dataDxfId="667" totalsRowDxfId="666">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="665" totalsRowDxfId="664" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="601" totalsRowDxfId="600">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15301,43 +15201,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="599" dataDxfId="598" totalsRowDxfId="597">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="596" totalsRowDxfId="595" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="532" totalsRowDxfId="531">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15351,43 +15251,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529" totalsRowDxfId="528">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="527" totalsRowDxfId="526" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="463" totalsRowDxfId="462">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15401,43 +15301,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460" totalsRowDxfId="459">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="458" totalsRowDxfId="457" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="394" totalsRowDxfId="393">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15451,43 +15351,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="392" dataDxfId="391" totalsRowDxfId="390">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="389" totalsRowDxfId="388" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="325" totalsRowDxfId="324">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17003,19 +16903,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17037,19 +16937,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18331,19 +18231,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19697,19 +19597,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19733,19 +19633,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21092,19 +20992,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="80" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22404,12 +22304,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="137" priority="16">
+    <cfRule type="expression" dxfId="789" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="136" priority="15">
+    <cfRule type="expression" dxfId="788" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22417,21 +22317,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22504,8 +22404,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22856,7 +22756,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -22897,10 +22799,14 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -22932,14 +22838,20 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -22973,10 +22885,14 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -23010,7 +22926,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -23084,11 +23002,15 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -23123,14 +23045,20 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -23160,7 +23088,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -23197,11 +23127,15 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -23234,14 +23168,18 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -23271,7 +23209,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -23308,14 +23248,18 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -23386,14 +23330,20 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -23427,7 +23377,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -23499,14 +23451,20 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -23572,7 +23530,7 @@
       </c>
       <c r="N25" s="44">
         <f>SUBTOTAL(103,Март[12])</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O25" s="44">
         <f>SUBTOTAL(103,Март[13])</f>
@@ -23588,7 +23546,7 @@
       </c>
       <c r="R25" s="44">
         <f>SUBTOTAL(103,Март[16])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S25" s="44">
         <f>SUBTOTAL(103,Март[17])</f>
@@ -23600,7 +23558,7 @@
       </c>
       <c r="U25" s="44">
         <f>SUBTOTAL(103,Март[19])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V25" s="44">
         <f>SUBTOTAL(103,Март[20])</f>
@@ -23668,21 +23626,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24436,19 +24394,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25215,19 +25173,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="120" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25991,19 +25949,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="115" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26770,19 +26728,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27549,19 +27507,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28325,19 +28283,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -22404,8 +22404,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23177,9 +23177,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -23341,9 +23339,7 @@
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -23558,7 +23554,7 @@
       </c>
       <c r="U25" s="44">
         <f>SUBTOTAL(103,Март[19])</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V25" s="44">
         <f>SUBTOTAL(103,Март[20])</f>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -22404,8 +22404,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22810,7 +22810,9 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -22855,7 +22857,9 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -22896,7 +22900,9 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -23017,7 +23023,9 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -23343,7 +23351,9 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -23464,7 +23474,9 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -23570,7 +23582,7 @@
       </c>
       <c r="Y25" s="44">
         <f>SUBTOTAL(103,Март[23])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z25" s="44">
         <f>SUBTOTAL(103,Март[24])</f>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -529,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +725,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -915,7 +921,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1060,6 +1066,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% — акцент1" xfId="15" builtinId="30" customBuiltin="1"/>
@@ -2171,6 +2183,24 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -12647,18 +12677,6 @@
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -14842,41 +14860,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="224" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="223" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="222" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="208" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="207" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="206" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="205" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="204" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="203" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="202" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="201" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="200" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="199" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="198" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="197" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="196" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="195" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="194" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="193" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="192" totalsRowDxfId="191" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14890,43 +14908,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="180" dataDxfId="179" totalsRowDxfId="178">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14940,43 +14958,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14990,10 +15008,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="37" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="36" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15081,13 +15099,13 @@
     <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="9"/>
     <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="8"/>
     <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="673" totalsRowDxfId="0"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="676" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15099,45 +15117,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="667" dataDxfId="666" totalsRowDxfId="665">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="670" dataDxfId="669" totalsRowDxfId="668">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="664" totalsRowDxfId="663" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="667" totalsRowDxfId="666" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="602" totalsRowDxfId="601">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="605" totalsRowDxfId="604">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="600" totalsRowDxfId="599">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="603" totalsRowDxfId="602">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15151,43 +15169,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="596" dataDxfId="595" totalsRowDxfId="594">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="593" totalsRowDxfId="592" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="591" totalsRowDxfId="590"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="588"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="586"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="584"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="582"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="580"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="578"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="569" totalsRowDxfId="568"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="567" totalsRowDxfId="566"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="565" totalsRowDxfId="564"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="563" totalsRowDxfId="562"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="561" totalsRowDxfId="560"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="559" totalsRowDxfId="558"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="557" totalsRowDxfId="556"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="554"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="529" totalsRowDxfId="528">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15201,43 +15219,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="522" dataDxfId="521" totalsRowDxfId="520">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="519" totalsRowDxfId="518" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="459" totalsRowDxfId="458"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="457" totalsRowDxfId="456"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="455" totalsRowDxfId="454">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15251,43 +15269,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="448" dataDxfId="447" totalsRowDxfId="446">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="445" totalsRowDxfId="444" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="443" totalsRowDxfId="442"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="441" totalsRowDxfId="440"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="439" totalsRowDxfId="438"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="437" totalsRowDxfId="436"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="435" totalsRowDxfId="434"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="433" totalsRowDxfId="432"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="431" totalsRowDxfId="430"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="429" totalsRowDxfId="428"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="425" totalsRowDxfId="424"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="423" totalsRowDxfId="422"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="421" totalsRowDxfId="420"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="419" totalsRowDxfId="418"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="417" totalsRowDxfId="416"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="415" totalsRowDxfId="414"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="413" totalsRowDxfId="412"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="411" totalsRowDxfId="410"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="409" totalsRowDxfId="408"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="381" totalsRowDxfId="380">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15301,43 +15319,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="374" dataDxfId="373" totalsRowDxfId="372">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="371" totalsRowDxfId="370" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="321" totalsRowDxfId="320"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="319" totalsRowDxfId="318"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="317" totalsRowDxfId="316"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="315" totalsRowDxfId="314"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="313" totalsRowDxfId="312"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="311" totalsRowDxfId="310"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="309" totalsRowDxfId="308"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="307" totalsRowDxfId="306">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15351,43 +15369,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="300" dataDxfId="299" totalsRowDxfId="298">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="297" totalsRowDxfId="296" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="293" totalsRowDxfId="292"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="291" totalsRowDxfId="290"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="289" totalsRowDxfId="288"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="287" totalsRowDxfId="286"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="285" totalsRowDxfId="284"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="283" totalsRowDxfId="282"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="281" totalsRowDxfId="280"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="279" totalsRowDxfId="278"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="277" totalsRowDxfId="276"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="275" totalsRowDxfId="274"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="273" totalsRowDxfId="272"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="267" totalsRowDxfId="266"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="253" totalsRowDxfId="252"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="249" totalsRowDxfId="248"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="247" totalsRowDxfId="246"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="245" totalsRowDxfId="244"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="243" totalsRowDxfId="242"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="233" totalsRowDxfId="232">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18231,19 +18249,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19597,19 +19615,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19633,19 +19651,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20992,19 +21010,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21205,8 +21223,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AH24"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22405,7 +22423,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22773,7 +22791,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="48"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -22816,7 +22834,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="48"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -22862,8 +22880,12 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
+      <c r="AB9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9" s="48" t="s">
+        <v>81</v>
+      </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -22906,7 +22928,9 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="48" t="s">
+        <v>81</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -22944,8 +22968,10 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11" s="48"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -22981,8 +23007,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>81</v>
+      </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -23029,7 +23059,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="49"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -23074,7 +23104,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -23113,7 +23143,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="49"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -23154,7 +23184,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="49"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -23193,7 +23223,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="49"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -23232,7 +23262,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="49"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -23273,7 +23303,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="49"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -23312,7 +23342,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AC20" s="49"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -23357,7 +23387,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AC21" s="49"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -23396,7 +23426,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AC22" s="49"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -23433,7 +23463,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="AC23" s="49"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -23479,8 +23509,12 @@
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC24" s="49" t="s">
+        <v>81</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -23594,11 +23628,11 @@
       </c>
       <c r="AB25" s="44">
         <f>SUBTOTAL(103,Март[26])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC25" s="44">
         <f>SUBTOTAL(103,Март[27])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="44">
         <f>SUBTOTAL(103,Март[28])</f>
@@ -24402,19 +24436,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="672" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25181,19 +25215,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25957,19 +25991,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26736,19 +26770,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27515,19 +27549,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28291,19 +28325,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1060,17 +1060,17 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2182,22 +2182,732 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3613,56 +4323,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5059,106 +5719,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5304,56 +5864,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6528,56 +7038,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7748,56 +8208,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8968,56 +9378,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10189,56 +10549,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11409,56 +11719,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -12629,64 +12889,24 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -12813,56 +13033,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -14068,76 +14238,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14413,106 +14513,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14777,7 +14777,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="868" dataDxfId="867" totalsRowDxfId="866">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14814,39 +14814,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
-    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
-    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
-    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
-    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
-    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
-    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
-    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
-    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
-    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="865" totalsRowDxfId="864" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="863" totalsRowDxfId="862"/>
+    <tableColumn id="3" name="2" dataDxfId="861" totalsRowDxfId="860"/>
+    <tableColumn id="4" name="3" dataDxfId="859" totalsRowDxfId="858"/>
+    <tableColumn id="5" name="4" dataDxfId="857" totalsRowDxfId="856"/>
+    <tableColumn id="6" name="5" dataDxfId="855" totalsRowDxfId="854"/>
+    <tableColumn id="7" name="6" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="8" name="7" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="9" name="8" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="10" name="9" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="11" name="10" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="12" name="11" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="14" name="13" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="15" name="14" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="17" name="16" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="18" name="17" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="19" name="18" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="21" name="20" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="22" name="21" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="23" name="22" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="24" name="23" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="25" name="24" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="26" name="25" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="27" name="26" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="28" name="27" dataDxfId="811" totalsRowDxfId="810"/>
+    <tableColumn id="29" name="28" dataDxfId="809" totalsRowDxfId="808"/>
+    <tableColumn id="30" name="29" dataDxfId="807" totalsRowDxfId="806"/>
+    <tableColumn id="31" name="30" dataDxfId="805" totalsRowDxfId="804"/>
+    <tableColumn id="32" name="31" dataDxfId="803" totalsRowDxfId="802"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="801" totalsRowDxfId="800">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14860,41 +14860,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="282" dataDxfId="281" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="224" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="223" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="222" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="203" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="202" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="201" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="200" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="199" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="198" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="197" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="196" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="195" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="194" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="193" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="192" totalsRowDxfId="191" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="280" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="279" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="278" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="277" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="276" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="275" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="274" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="273" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="272" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="271" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="270" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="269" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="268" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="267" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="266" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="265" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="264" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="263" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="262" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="261" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="260" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="259" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="258" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="257" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="256" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="255" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="254" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="253" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="252" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="251" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="250" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="249" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="248" totalsRowDxfId="247" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14908,43 +14908,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="180" dataDxfId="179" totalsRowDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="246" dataDxfId="245" totalsRowDxfId="244">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="243" totalsRowDxfId="242" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="233" totalsRowDxfId="232"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="231" totalsRowDxfId="230"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="229" totalsRowDxfId="228"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="223" totalsRowDxfId="222"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="219" totalsRowDxfId="218"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="178">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14958,43 +14958,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15008,10 +15008,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="37" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="108" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="36" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="107" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15023,41 +15023,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="799" dataDxfId="798" totalsRowDxfId="797">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="777" totalsRowDxfId="776"/>
-    <tableColumn id="3" name="2" dataDxfId="775" totalsRowDxfId="774"/>
-    <tableColumn id="4" name="3" dataDxfId="773" totalsRowDxfId="772"/>
-    <tableColumn id="5" name="4" dataDxfId="771" totalsRowDxfId="770"/>
-    <tableColumn id="6" name="5" dataDxfId="769" totalsRowDxfId="768"/>
-    <tableColumn id="7" name="6" dataDxfId="767" totalsRowDxfId="766"/>
-    <tableColumn id="8" name="7" dataDxfId="765" totalsRowDxfId="764"/>
-    <tableColumn id="9" name="8" dataDxfId="763" totalsRowDxfId="762"/>
-    <tableColumn id="10" name="9" dataDxfId="761" totalsRowDxfId="760"/>
-    <tableColumn id="11" name="10" dataDxfId="759" totalsRowDxfId="758"/>
-    <tableColumn id="12" name="11" dataDxfId="757" totalsRowDxfId="756"/>
-    <tableColumn id="13" name="12" dataDxfId="755" totalsRowDxfId="754"/>
-    <tableColumn id="14" name="13" dataDxfId="753" totalsRowDxfId="752"/>
-    <tableColumn id="15" name="14" dataDxfId="751" totalsRowDxfId="750"/>
-    <tableColumn id="16" name="15" dataDxfId="749" totalsRowDxfId="748"/>
-    <tableColumn id="17" name="16" dataDxfId="747" totalsRowDxfId="746"/>
-    <tableColumn id="18" name="17" dataDxfId="745" totalsRowDxfId="744"/>
-    <tableColumn id="19" name="18" dataDxfId="743" totalsRowDxfId="742"/>
-    <tableColumn id="20" name="19" dataDxfId="741" totalsRowDxfId="740"/>
-    <tableColumn id="21" name="20" dataDxfId="739" totalsRowDxfId="738"/>
-    <tableColumn id="22" name="21" dataDxfId="737" totalsRowDxfId="736"/>
-    <tableColumn id="23" name="22" dataDxfId="735" totalsRowDxfId="734"/>
-    <tableColumn id="24" name="23" dataDxfId="733" totalsRowDxfId="732"/>
-    <tableColumn id="25" name="24" dataDxfId="731" totalsRowDxfId="730"/>
-    <tableColumn id="26" name="25" dataDxfId="729" totalsRowDxfId="728"/>
-    <tableColumn id="27" name="26" dataDxfId="727" totalsRowDxfId="726"/>
-    <tableColumn id="28" name="27" dataDxfId="725" totalsRowDxfId="724"/>
-    <tableColumn id="29" name="28" dataDxfId="723" totalsRowDxfId="722"/>
-    <tableColumn id="30" name="29" dataDxfId="721" totalsRowDxfId="720"/>
-    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
-    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="715" totalsRowDxfId="714"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="796" totalsRowDxfId="795" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="794" totalsRowDxfId="793"/>
+    <tableColumn id="3" name="2" dataDxfId="792" totalsRowDxfId="791"/>
+    <tableColumn id="4" name="3" dataDxfId="790" totalsRowDxfId="789"/>
+    <tableColumn id="5" name="4" dataDxfId="788" totalsRowDxfId="787"/>
+    <tableColumn id="6" name="5" dataDxfId="786" totalsRowDxfId="785"/>
+    <tableColumn id="7" name="6" dataDxfId="784" totalsRowDxfId="783"/>
+    <tableColumn id="8" name="7" dataDxfId="782" totalsRowDxfId="781"/>
+    <tableColumn id="9" name="8" dataDxfId="780" totalsRowDxfId="779"/>
+    <tableColumn id="10" name="9" dataDxfId="778" totalsRowDxfId="777"/>
+    <tableColumn id="11" name="10" dataDxfId="776" totalsRowDxfId="775"/>
+    <tableColumn id="12" name="11" dataDxfId="774" totalsRowDxfId="773"/>
+    <tableColumn id="13" name="12" dataDxfId="772" totalsRowDxfId="771"/>
+    <tableColumn id="14" name="13" dataDxfId="770" totalsRowDxfId="769"/>
+    <tableColumn id="15" name="14" dataDxfId="768" totalsRowDxfId="767"/>
+    <tableColumn id="16" name="15" dataDxfId="766" totalsRowDxfId="765"/>
+    <tableColumn id="17" name="16" dataDxfId="764" totalsRowDxfId="763"/>
+    <tableColumn id="18" name="17" dataDxfId="762" totalsRowDxfId="761"/>
+    <tableColumn id="19" name="18" dataDxfId="760" totalsRowDxfId="759"/>
+    <tableColumn id="20" name="19" dataDxfId="758" totalsRowDxfId="757"/>
+    <tableColumn id="21" name="20" dataDxfId="756" totalsRowDxfId="755"/>
+    <tableColumn id="22" name="21" dataDxfId="754" totalsRowDxfId="753"/>
+    <tableColumn id="23" name="22" dataDxfId="752" totalsRowDxfId="751"/>
+    <tableColumn id="24" name="23" dataDxfId="750" totalsRowDxfId="749"/>
+    <tableColumn id="25" name="24" dataDxfId="748" totalsRowDxfId="747"/>
+    <tableColumn id="26" name="25" dataDxfId="746" totalsRowDxfId="745"/>
+    <tableColumn id="27" name="26" dataDxfId="744" totalsRowDxfId="743"/>
+    <tableColumn id="28" name="27" dataDxfId="742" totalsRowDxfId="741"/>
+    <tableColumn id="29" name="28" dataDxfId="740" totalsRowDxfId="739"/>
+    <tableColumn id="30" name="29" dataDxfId="738" totalsRowDxfId="737"/>
+    <tableColumn id="31" name=" " dataDxfId="736" totalsRowDxfId="735"/>
+    <tableColumn id="32" name="  " dataDxfId="734" totalsRowDxfId="733"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="732" totalsRowDxfId="731"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15069,43 +15069,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="730" dataDxfId="729" totalsRowDxfId="728">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="727" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="676" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="725" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="723" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="721" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="719" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="717" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="715" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="713" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="711" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="709" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="707" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="705" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="697" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15117,45 +15117,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="670" dataDxfId="669" totalsRowDxfId="668">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="696" dataDxfId="695" totalsRowDxfId="694">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="667" totalsRowDxfId="666" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="693" totalsRowDxfId="692" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="605" totalsRowDxfId="604">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="630">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="603" totalsRowDxfId="602">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="629" totalsRowDxfId="628">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15169,43 +15169,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="596" dataDxfId="595" totalsRowDxfId="594">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="627" dataDxfId="626" totalsRowDxfId="625">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="593" totalsRowDxfId="592" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="624" totalsRowDxfId="623" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="591" totalsRowDxfId="590"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="588"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="586"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="584"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="582"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="580"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="578"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="569" totalsRowDxfId="568"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="567" totalsRowDxfId="566"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="565" totalsRowDxfId="564"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="563" totalsRowDxfId="562"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="561" totalsRowDxfId="560"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="559" totalsRowDxfId="558"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="557" totalsRowDxfId="556"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="554"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="529" totalsRowDxfId="528">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="601"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="600" totalsRowDxfId="599"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="598" totalsRowDxfId="597"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="596" totalsRowDxfId="595"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="560" totalsRowDxfId="559">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15219,43 +15219,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="522" dataDxfId="521" totalsRowDxfId="520">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="558" dataDxfId="557" totalsRowDxfId="556">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="519" totalsRowDxfId="518" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="555" totalsRowDxfId="554" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="459" totalsRowDxfId="458"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="457" totalsRowDxfId="456"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="455" totalsRowDxfId="454">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="528"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="526"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="491" totalsRowDxfId="490">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15269,43 +15269,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="448" dataDxfId="447" totalsRowDxfId="446">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="489" dataDxfId="488" totalsRowDxfId="487">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="445" totalsRowDxfId="444" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="486" totalsRowDxfId="485" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="443" totalsRowDxfId="442"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="441" totalsRowDxfId="440"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="439" totalsRowDxfId="438"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="437" totalsRowDxfId="436"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="435" totalsRowDxfId="434"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="433" totalsRowDxfId="432"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="431" totalsRowDxfId="430"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="425" totalsRowDxfId="424"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="419" totalsRowDxfId="418"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="417" totalsRowDxfId="416"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="415" totalsRowDxfId="414"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="413" totalsRowDxfId="412"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="409" totalsRowDxfId="408"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="381" totalsRowDxfId="380">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="422" totalsRowDxfId="421">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15319,43 +15319,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="374" dataDxfId="373" totalsRowDxfId="372">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="420" dataDxfId="419" totalsRowDxfId="418">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="371" totalsRowDxfId="370" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="417" totalsRowDxfId="416" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="317" totalsRowDxfId="316"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="315" totalsRowDxfId="314"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="313" totalsRowDxfId="312"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="311" totalsRowDxfId="310"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="309" totalsRowDxfId="308"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="307" totalsRowDxfId="306">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="415" totalsRowDxfId="414"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="413" totalsRowDxfId="412"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="411" totalsRowDxfId="410"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="409" totalsRowDxfId="408"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="353" totalsRowDxfId="352">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15369,43 +15369,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="300" dataDxfId="299" totalsRowDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="351" dataDxfId="350" totalsRowDxfId="349">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="297" totalsRowDxfId="296" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="348" totalsRowDxfId="347" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="285" totalsRowDxfId="284"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="283" totalsRowDxfId="282"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="281" totalsRowDxfId="280"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="279" totalsRowDxfId="278"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="277" totalsRowDxfId="276"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="273" totalsRowDxfId="272"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="265" totalsRowDxfId="264"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="263" totalsRowDxfId="262"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="261" totalsRowDxfId="260"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="249" totalsRowDxfId="248"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="247" totalsRowDxfId="246"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="245" totalsRowDxfId="244"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="243" totalsRowDxfId="242"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="237" totalsRowDxfId="236"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="235" totalsRowDxfId="234"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="233" totalsRowDxfId="232">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="284" totalsRowDxfId="283">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15678,42 +15678,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -15724,39 +15724,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <v>2022</v>
       </c>
@@ -16921,19 +16921,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16955,19 +16955,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17055,34 +17055,34 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17091,39 +17091,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -18249,19 +18249,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18358,28 +18358,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18388,39 +18388,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -19615,19 +19615,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="190" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19651,19 +19651,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="185" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19748,42 +19748,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19792,39 +19792,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21010,19 +21010,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21223,8 +21223,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21249,42 +21249,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21293,39 +21293,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -22322,12 +22322,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="789" priority="16">
+    <cfRule type="expression" dxfId="96" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="788" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22335,21 +22335,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22420,10 +22420,10 @@
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22448,42 +22448,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22492,39 +22492,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -22791,9 +22791,9 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="48"/>
+      <c r="AC7" s="46"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="29"/>
@@ -22834,9 +22834,9 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="48"/>
+      <c r="AC8" s="46"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="29"/>
@@ -22883,12 +22883,12 @@
       <c r="AB9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" s="48" t="s">
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="29"/>
     </row>
@@ -22928,11 +22928,9 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="48" t="s">
-        <v>81</v>
-      </c>
+      <c r="AC10" s="46"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="29"/>
@@ -22971,10 +22969,12 @@
       <c r="AB11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC11" s="48"/>
+      <c r="AC11" s="46"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="29"/>
     </row>
@@ -23010,12 +23010,12 @@
       <c r="AB12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC12" s="49" t="s">
-        <v>81</v>
-      </c>
+      <c r="AC12" s="47"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
@@ -23059,10 +23059,12 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="49"/>
+      <c r="AC13" s="47"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
@@ -23104,10 +23106,12 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="49"/>
+      <c r="AC14" s="47"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AF14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
@@ -23143,7 +23147,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="49"/>
+      <c r="AC15" s="47"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -23184,10 +23188,12 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="49"/>
+      <c r="AC16" s="47"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+      <c r="AF16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
@@ -23223,7 +23229,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="49"/>
+      <c r="AC17" s="47"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -23262,7 +23268,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="49"/>
+      <c r="AC18" s="47"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -23303,7 +23309,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="49"/>
+      <c r="AC19" s="47"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -23342,7 +23348,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="49"/>
+      <c r="AC20" s="47"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -23387,10 +23393,12 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="49"/>
+      <c r="AC21" s="47"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+      <c r="AF21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
@@ -23426,7 +23434,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="49"/>
+      <c r="AC22" s="47"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -23463,7 +23471,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="49"/>
+      <c r="AC23" s="47"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -23512,12 +23520,12 @@
       <c r="AB24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC24" s="49" t="s">
-        <v>81</v>
-      </c>
+      <c r="AC24" s="47"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+      <c r="AF24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
@@ -23632,7 +23640,7 @@
       </c>
       <c r="AC25" s="44">
         <f>SUBTOTAL(103,Март[27])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="44">
         <f>SUBTOTAL(103,Март[28])</f>
@@ -23644,7 +23652,7 @@
       </c>
       <c r="AF25" s="44">
         <f>SUBTOTAL(103,Март[30])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG25" s="44">
         <f>SUBTOTAL(103,Март[31])</f>
@@ -23653,6 +23661,11 @@
       <c r="AH25" s="44">
         <f>SUBTOTAL(109,Март[Всего дней])</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF26" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -23664,25 +23677,25 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AG24">
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23779,42 +23792,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23823,39 +23836,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -24436,19 +24449,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="675" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24555,42 +24568,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24599,39 +24612,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25215,19 +25228,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="601" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25334,42 +25347,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25378,39 +25391,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25991,19 +26004,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="527" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26110,42 +26123,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26154,39 +26167,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26770,19 +26783,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="453" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26889,42 +26902,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26933,39 +26946,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27549,19 +27562,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="379" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27668,42 +27681,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27712,39 +27725,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -28325,19 +28338,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="305" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -22422,8 +22422,8 @@
   </sheetPr>
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -529,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +731,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -921,7 +927,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1066,6 +1072,18 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,9 +2122,9 @@
       </font>
       <numFmt numFmtId="166" formatCode="0;0;"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2180,734 +2198,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4323,6 +3613,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5719,6 +5059,106 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5864,6 +5304,56 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7038,6 +6528,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8208,6 +7748,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9378,6 +8968,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10549,6 +10189,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11719,6 +11409,267 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11750,7 +11701,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11786,6 +11737,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11821,6 +11773,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11856,6 +11809,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11891,6 +11845,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11926,6 +11881,13 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11961,6 +11923,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11996,6 +11959,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12031,6 +11995,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12066,6 +12031,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12101,6 +12067,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12136,6 +12103,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12171,6 +12139,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12206,6 +12175,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12241,6 +12211,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12276,6 +12247,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12311,6 +12283,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12346,6 +12319,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12381,6 +12355,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12416,6 +12391,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12451,6 +12427,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12486,6 +12463,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12521,6 +12499,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12556,6 +12535,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12591,6 +12571,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12626,6 +12607,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12661,6 +12643,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12696,6 +12679,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12731,6 +12715,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12766,6 +12751,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12801,6 +12787,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12836,6 +12823,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -12883,156 +12871,61 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -14238,6 +14131,76 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14513,6 +14476,106 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14777,7 +14840,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="868" dataDxfId="867" totalsRowDxfId="866">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14814,39 +14877,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="865" totalsRowDxfId="864" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="863" totalsRowDxfId="862"/>
-    <tableColumn id="3" name="2" dataDxfId="861" totalsRowDxfId="860"/>
-    <tableColumn id="4" name="3" dataDxfId="859" totalsRowDxfId="858"/>
-    <tableColumn id="5" name="4" dataDxfId="857" totalsRowDxfId="856"/>
-    <tableColumn id="6" name="5" dataDxfId="855" totalsRowDxfId="854"/>
-    <tableColumn id="7" name="6" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="8" name="7" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="9" name="8" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="10" name="9" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="11" name="10" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="12" name="11" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="14" name="13" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="15" name="14" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="17" name="16" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="18" name="17" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="19" name="18" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="21" name="20" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="22" name="21" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="23" name="22" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="24" name="23" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="25" name="24" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="26" name="25" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="27" name="26" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="28" name="27" dataDxfId="811" totalsRowDxfId="810"/>
-    <tableColumn id="29" name="28" dataDxfId="809" totalsRowDxfId="808"/>
-    <tableColumn id="30" name="29" dataDxfId="807" totalsRowDxfId="806"/>
-    <tableColumn id="31" name="30" dataDxfId="805" totalsRowDxfId="804"/>
-    <tableColumn id="32" name="31" dataDxfId="803" totalsRowDxfId="802"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="801" totalsRowDxfId="800">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
+    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
+    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
+    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
+    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
+    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
+    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
+    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
+    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
+    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14860,41 +14923,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="282" dataDxfId="281" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="280" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="279" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="278" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="277" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="276" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="275" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="274" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="273" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="272" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="271" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="270" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="269" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="268" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="267" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="266" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="265" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="264" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="263" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="262" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="261" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="260" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="259" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="258" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="257" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="256" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="255" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="254" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="253" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="252" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="251" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="250" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="249" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="248" totalsRowDxfId="247" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14908,57 +14971,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="246" dataDxfId="245" totalsRowDxfId="244">
-  <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="243" totalsRowDxfId="242" dataCellStyle="Сотрудник">
-      <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="237" totalsRowDxfId="236"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="235" totalsRowDxfId="234"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="233" totalsRowDxfId="232"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="231" totalsRowDxfId="230"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="229" totalsRowDxfId="228"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="178">
-      <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Введите имена сотрудников и даты отсутствия. Запишите тип отсутствия в строке 12: В = отпуск, Б = больничный, ЛО = личные обстоятельства и два места для собственных причин"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <tableColumns count="33">
     <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
@@ -14993,8 +15006,58 @@
     <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
     <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
     <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
     <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+      <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Введите имена сотрудников и даты отсутствия. Запишите тип отсутствия в строке 12: В = отпуск, Б = больничный, ЛО = личные обстоятельства и два места для собственных причин"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
+  <tableColumns count="33">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
+      <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15008,10 +15071,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="108" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="107" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15023,41 +15086,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="799" dataDxfId="798" totalsRowDxfId="797">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="796" totalsRowDxfId="795" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="794" totalsRowDxfId="793"/>
-    <tableColumn id="3" name="2" dataDxfId="792" totalsRowDxfId="791"/>
-    <tableColumn id="4" name="3" dataDxfId="790" totalsRowDxfId="789"/>
-    <tableColumn id="5" name="4" dataDxfId="788" totalsRowDxfId="787"/>
-    <tableColumn id="6" name="5" dataDxfId="786" totalsRowDxfId="785"/>
-    <tableColumn id="7" name="6" dataDxfId="784" totalsRowDxfId="783"/>
-    <tableColumn id="8" name="7" dataDxfId="782" totalsRowDxfId="781"/>
-    <tableColumn id="9" name="8" dataDxfId="780" totalsRowDxfId="779"/>
-    <tableColumn id="10" name="9" dataDxfId="778" totalsRowDxfId="777"/>
-    <tableColumn id="11" name="10" dataDxfId="776" totalsRowDxfId="775"/>
-    <tableColumn id="12" name="11" dataDxfId="774" totalsRowDxfId="773"/>
-    <tableColumn id="13" name="12" dataDxfId="772" totalsRowDxfId="771"/>
-    <tableColumn id="14" name="13" dataDxfId="770" totalsRowDxfId="769"/>
-    <tableColumn id="15" name="14" dataDxfId="768" totalsRowDxfId="767"/>
-    <tableColumn id="16" name="15" dataDxfId="766" totalsRowDxfId="765"/>
-    <tableColumn id="17" name="16" dataDxfId="764" totalsRowDxfId="763"/>
-    <tableColumn id="18" name="17" dataDxfId="762" totalsRowDxfId="761"/>
-    <tableColumn id="19" name="18" dataDxfId="760" totalsRowDxfId="759"/>
-    <tableColumn id="20" name="19" dataDxfId="758" totalsRowDxfId="757"/>
-    <tableColumn id="21" name="20" dataDxfId="756" totalsRowDxfId="755"/>
-    <tableColumn id="22" name="21" dataDxfId="754" totalsRowDxfId="753"/>
-    <tableColumn id="23" name="22" dataDxfId="752" totalsRowDxfId="751"/>
-    <tableColumn id="24" name="23" dataDxfId="750" totalsRowDxfId="749"/>
-    <tableColumn id="25" name="24" dataDxfId="748" totalsRowDxfId="747"/>
-    <tableColumn id="26" name="25" dataDxfId="746" totalsRowDxfId="745"/>
-    <tableColumn id="27" name="26" dataDxfId="744" totalsRowDxfId="743"/>
-    <tableColumn id="28" name="27" dataDxfId="742" totalsRowDxfId="741"/>
-    <tableColumn id="29" name="28" dataDxfId="740" totalsRowDxfId="739"/>
-    <tableColumn id="30" name="29" dataDxfId="738" totalsRowDxfId="737"/>
-    <tableColumn id="31" name=" " dataDxfId="736" totalsRowDxfId="735"/>
-    <tableColumn id="32" name="  " dataDxfId="734" totalsRowDxfId="733"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="732" totalsRowDxfId="731"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="777" totalsRowDxfId="776"/>
+    <tableColumn id="3" name="2" dataDxfId="775" totalsRowDxfId="774"/>
+    <tableColumn id="4" name="3" dataDxfId="773" totalsRowDxfId="772"/>
+    <tableColumn id="5" name="4" dataDxfId="771" totalsRowDxfId="770"/>
+    <tableColumn id="6" name="5" dataDxfId="769" totalsRowDxfId="768"/>
+    <tableColumn id="7" name="6" dataDxfId="767" totalsRowDxfId="766"/>
+    <tableColumn id="8" name="7" dataDxfId="765" totalsRowDxfId="764"/>
+    <tableColumn id="9" name="8" dataDxfId="763" totalsRowDxfId="762"/>
+    <tableColumn id="10" name="9" dataDxfId="761" totalsRowDxfId="760"/>
+    <tableColumn id="11" name="10" dataDxfId="759" totalsRowDxfId="758"/>
+    <tableColumn id="12" name="11" dataDxfId="757" totalsRowDxfId="756"/>
+    <tableColumn id="13" name="12" dataDxfId="755" totalsRowDxfId="754"/>
+    <tableColumn id="14" name="13" dataDxfId="753" totalsRowDxfId="752"/>
+    <tableColumn id="15" name="14" dataDxfId="751" totalsRowDxfId="750"/>
+    <tableColumn id="16" name="15" dataDxfId="749" totalsRowDxfId="748"/>
+    <tableColumn id="17" name="16" dataDxfId="747" totalsRowDxfId="746"/>
+    <tableColumn id="18" name="17" dataDxfId="745" totalsRowDxfId="744"/>
+    <tableColumn id="19" name="18" dataDxfId="743" totalsRowDxfId="742"/>
+    <tableColumn id="20" name="19" dataDxfId="741" totalsRowDxfId="740"/>
+    <tableColumn id="21" name="20" dataDxfId="739" totalsRowDxfId="738"/>
+    <tableColumn id="22" name="21" dataDxfId="737" totalsRowDxfId="736"/>
+    <tableColumn id="23" name="22" dataDxfId="735" totalsRowDxfId="734"/>
+    <tableColumn id="24" name="23" dataDxfId="733" totalsRowDxfId="732"/>
+    <tableColumn id="25" name="24" dataDxfId="731" totalsRowDxfId="730"/>
+    <tableColumn id="26" name="25" dataDxfId="729" totalsRowDxfId="728"/>
+    <tableColumn id="27" name="26" dataDxfId="727" totalsRowDxfId="726"/>
+    <tableColumn id="28" name="27" dataDxfId="725" totalsRowDxfId="724"/>
+    <tableColumn id="29" name="28" dataDxfId="723" totalsRowDxfId="722"/>
+    <tableColumn id="30" name="29" dataDxfId="721" totalsRowDxfId="720"/>
+    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
+    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="715" totalsRowDxfId="714"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15069,43 +15132,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="730" dataDxfId="729" totalsRowDxfId="728">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="727" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="704" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="725" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="723" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="721" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="719" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="717" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="715" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="713" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="711" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="709" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="707" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="705" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="697" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="641" totalsRowDxfId="640"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15117,47 +15180,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="696" dataDxfId="695" totalsRowDxfId="694">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="634" dataDxfId="633" totalsRowDxfId="632">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="693" totalsRowDxfId="692" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="630">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="2"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="600" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="629" totalsRowDxfId="628">
-      <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="599" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15169,43 +15230,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="627" dataDxfId="626" totalsRowDxfId="625">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="624" totalsRowDxfId="623" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="601"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="600" totalsRowDxfId="599"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="598" totalsRowDxfId="597"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="596" totalsRowDxfId="595"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="560" totalsRowDxfId="559">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15219,43 +15280,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="558" dataDxfId="557" totalsRowDxfId="556">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="555" totalsRowDxfId="554" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="528"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="526"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="491" totalsRowDxfId="490">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15269,43 +15330,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="489" dataDxfId="488" totalsRowDxfId="487">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="486" totalsRowDxfId="485" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="422" totalsRowDxfId="421">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15319,43 +15380,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="420" dataDxfId="419" totalsRowDxfId="418">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="417" totalsRowDxfId="416" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="415" totalsRowDxfId="414"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="413" totalsRowDxfId="412"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="409" totalsRowDxfId="408"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="353" totalsRowDxfId="352">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15369,43 +15430,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="351" dataDxfId="350" totalsRowDxfId="349">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="348" totalsRowDxfId="347" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="302" totalsRowDxfId="301"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="300" totalsRowDxfId="299"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="298" totalsRowDxfId="297"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="296" totalsRowDxfId="295"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="294" totalsRowDxfId="293"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15678,42 +15739,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -15724,39 +15785,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <v>2022</v>
       </c>
@@ -16921,19 +16982,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16955,19 +17016,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17055,34 +17116,34 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17091,39 +17152,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -18249,19 +18310,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18358,28 +18419,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18388,39 +18449,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -19615,19 +19676,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="49" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19651,19 +19712,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19748,42 +19809,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19792,39 +19853,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21010,19 +21071,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21249,42 +21310,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21293,39 +21354,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -22322,12 +22383,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="96" priority="16">
+    <cfRule type="expression" dxfId="789" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="788" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22335,21 +22396,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22422,8 +22483,8 @@
   </sheetPr>
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22448,42 +22509,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22492,39 +22553,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -23681,21 +23742,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23766,9 +23827,11 @@
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23792,42 +23855,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23836,39 +23899,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -24101,11 +24164,11 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -24132,27 +24195,26 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="9">
-        <f>COUNTA(Апрель[[#This Row],[1]:[30]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH7" s="29"/>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>4</v>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -24172,27 +24234,28 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="9">
-        <f>COUNTA(Апрель[[#This Row],[1]:[30]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH8" s="29"/>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
+      <c r="B9" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -24212,24 +24275,23 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="9">
-        <f>COUNTA(Апрель[[#This Row],[1]:[30]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>6</v>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -24252,20 +24314,17 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="9">
-        <f>COUNTA(Апрель[[#This Row],[1]:[30]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH10" s="29"/>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>7</v>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -24292,144 +24351,636 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="9">
-        <f>COUNTA(Апрель[[#This Row],[1]:[30]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH11" s="29"/>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Апрель Итог</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C25" s="44">
         <f>SUBTOTAL(103,Апрель[1])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D25" s="51">
         <f>SUBTOTAL(103,Апрель[2])</f>
         <v>0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E25" s="44">
         <f>SUBTOTAL(103,Апрель[3])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F25" s="44">
         <f>SUBTOTAL(103,Апрель[4])</f>
         <v>0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G25" s="44">
         <f>SUBTOTAL(103,Апрель[5])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H25" s="44">
         <f>SUBTOTAL(103,Апрель[6])</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
+        <v>6</v>
+      </c>
+      <c r="I25" s="44">
         <f>SUBTOTAL(103,Апрель[7])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J25" s="44">
         <f>SUBTOTAL(103,Апрель[8])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K25" s="44">
         <f>SUBTOTAL(103,Апрель[9])</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
+        <v>5</v>
+      </c>
+      <c r="L25" s="44">
         <f>SUBTOTAL(103,Апрель[10])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M25" s="44">
         <f>SUBTOTAL(103,Апрель[11])</f>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N25" s="44">
         <f>SUBTOTAL(103,Апрель[12])</f>
         <v>0</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O25" s="44">
         <f>SUBTOTAL(103,Апрель[13])</f>
         <v>0</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P25" s="44">
         <f>SUBTOTAL(103,Апрель[14])</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q25" s="44">
         <f>SUBTOTAL(103,Апрель[15])</f>
         <v>0</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R25" s="44">
         <f>SUBTOTAL(103,Апрель[16])</f>
         <v>0</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S25" s="44">
         <f>SUBTOTAL(103,Апрель[17])</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T25" s="44">
         <f>SUBTOTAL(103,Апрель[18])</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U25" s="44">
         <f>SUBTOTAL(103,Апрель[19])</f>
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V25" s="44">
         <f>SUBTOTAL(103,Апрель[20])</f>
         <v>0</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W25" s="44">
         <f>SUBTOTAL(103,Апрель[21])</f>
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X25" s="44">
         <f>SUBTOTAL(103,Апрель[22])</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y25" s="44">
         <f>SUBTOTAL(103,Апрель[23])</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z25" s="44">
         <f>SUBTOTAL(103,Апрель[24])</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA25" s="44">
         <f>SUBTOTAL(103,Апрель[25])</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB25" s="44">
         <f>SUBTOTAL(103,Апрель[26])</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC25" s="44">
         <f>SUBTOTAL(103,Апрель[27])</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD25" s="44">
         <f>SUBTOTAL(103,Апрель[28])</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE25" s="44">
         <f>SUBTOTAL(103,Апрель[29])</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF25" s="44">
         <f>SUBTOTAL(103,Апрель[30])</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG25" s="44">
         <f>SUBTOTAL(103,Апрель[30])</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH25" s="44">
         <f>SUBTOTAL(109,Апрель[Всего дней])</f>
         <v>0</v>
       </c>
@@ -24443,29 +24994,29 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AG11">
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="84" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+    <cfRule type="expression" dxfId="638" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH11">
+  <conditionalFormatting sqref="AH7:AH24">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -24474,7 +25025,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0C86709F-D813-4066-A3F1-C30F11214F4B}</x14:id>
+          <x14:id>{12D12DBE-2F2A-49CA-BB6A-71BDC2025F2D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24508,7 +25059,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0C86709F-D813-4066-A3F1-C30F11214F4B}">
+          <x14:cfRule type="dataBar" id="{12D12DBE-2F2A-49CA-BB6A-71BDC2025F2D}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="formula">
@@ -24518,19 +25069,9 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH7:AH11</xm:sqref>
+          <xm:sqref>AH7:AH24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Имена сотрудников'!$B$4:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -24568,42 +25109,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24612,39 +25153,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25228,19 +25769,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25347,42 +25888,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25391,39 +25932,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26004,19 +26545,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26123,42 +26664,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26167,39 +26708,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -26783,19 +27324,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26902,42 +27443,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26946,39 +27487,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27562,19 +28103,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27681,42 +28222,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27725,39 +28266,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -28338,19 +28879,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -23829,8 +23829,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24218,10 +24218,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -24259,10 +24263,14 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -24414,7 +24422,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -24450,7 +24460,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -24600,10 +24612,14 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -24752,7 +24768,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -24789,10 +24807,14 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -24830,10 +24852,14 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -24906,7 +24932,7 @@
       </c>
       <c r="O25" s="44">
         <f>SUBTOTAL(103,Апрель[13])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P25" s="44">
         <f>SUBTOTAL(103,Апрель[14])</f>
@@ -24918,7 +24944,7 @@
       </c>
       <c r="R25" s="44">
         <f>SUBTOTAL(103,Апрель[16])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S25" s="44">
         <f>SUBTOTAL(103,Апрель[17])</f>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -23830,7 +23830,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24274,7 +24274,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -24313,7 +24315,9 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -24428,7 +24432,9 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -24469,7 +24475,9 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -24543,7 +24551,9 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -24582,7 +24592,9 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -24863,7 +24875,9 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -24960,7 +24974,7 @@
       </c>
       <c r="V25" s="44">
         <f>SUBTOTAL(103,Апрель[20])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W25" s="44">
         <f>SUBTOTAL(103,Апрель[21])</f>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1143,7 +1143,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="882">
+  <dxfs count="892">
     <dxf>
       <font>
         <b val="0"/>
@@ -2122,9 +2122,9 @@
       </font>
       <numFmt numFmtId="166" formatCode="0;0;"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2198,6 +2198,970 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3613,56 +4577,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5059,106 +5973,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5304,56 +6118,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6528,56 +7292,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7748,56 +8462,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8968,56 +9632,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10188,54 +10802,20 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10270,6 +10850,8 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10305,6 +10887,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10340,6 +10923,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10375,6 +10959,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10410,6 +10995,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10445,6 +11031,13 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10480,6 +11073,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10515,6 +11109,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10550,6 +11145,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10585,6 +11181,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10620,6 +11217,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10655,6 +11253,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10690,6 +11289,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10725,6 +11325,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10760,6 +11361,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10795,6 +11397,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10830,6 +11433,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10865,6 +11469,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10900,6 +11505,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10935,6 +11541,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -10970,6 +11577,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11005,6 +11613,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11040,6 +11649,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11075,6 +11685,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11110,6 +11721,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11145,6 +11757,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11180,6 +11793,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11215,6 +11829,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11250,6 +11865,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11285,29 +11901,30 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -11320,6 +11937,13 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11355,6 +11979,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -11402,271 +12027,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12879,56 +13244,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -14131,76 +14446,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14476,106 +14721,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14813,19 +14958,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="881"/>
-      <tableStyleElement type="headerRow" dxfId="880"/>
-      <tableStyleElement type="totalRow" dxfId="879"/>
-      <tableStyleElement type="firstColumn" dxfId="878"/>
-      <tableStyleElement type="lastColumn" dxfId="877"/>
-      <tableStyleElement type="firstRowStripe" dxfId="876"/>
-      <tableStyleElement type="secondRowStripe" dxfId="875"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
-      <tableStyleElement type="firstTotalCell" dxfId="870"/>
-      <tableStyleElement type="lastTotalCell" dxfId="869"/>
+      <tableStyleElement type="wholeTable" dxfId="891"/>
+      <tableStyleElement type="headerRow" dxfId="890"/>
+      <tableStyleElement type="totalRow" dxfId="889"/>
+      <tableStyleElement type="firstColumn" dxfId="888"/>
+      <tableStyleElement type="lastColumn" dxfId="887"/>
+      <tableStyleElement type="firstRowStripe" dxfId="886"/>
+      <tableStyleElement type="secondRowStripe" dxfId="885"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="884"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="883"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="882"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="881"/>
+      <tableStyleElement type="firstTotalCell" dxfId="880"/>
+      <tableStyleElement type="lastTotalCell" dxfId="879"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14840,7 +14985,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="878" dataDxfId="877" totalsRowDxfId="876">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14877,39 +15022,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
-    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
-    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
-    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
-    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
-    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
-    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
-    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
-    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
-    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="875" totalsRowDxfId="874" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="873" totalsRowDxfId="872"/>
+    <tableColumn id="3" name="2" dataDxfId="871" totalsRowDxfId="870"/>
+    <tableColumn id="4" name="3" dataDxfId="869" totalsRowDxfId="868"/>
+    <tableColumn id="5" name="4" dataDxfId="867" totalsRowDxfId="866"/>
+    <tableColumn id="6" name="5" dataDxfId="865" totalsRowDxfId="864"/>
+    <tableColumn id="7" name="6" dataDxfId="863" totalsRowDxfId="862"/>
+    <tableColumn id="8" name="7" dataDxfId="861" totalsRowDxfId="860"/>
+    <tableColumn id="9" name="8" dataDxfId="859" totalsRowDxfId="858"/>
+    <tableColumn id="10" name="9" dataDxfId="857" totalsRowDxfId="856"/>
+    <tableColumn id="11" name="10" dataDxfId="855" totalsRowDxfId="854"/>
+    <tableColumn id="12" name="11" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="14" name="13" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="15" name="14" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="17" name="16" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="18" name="17" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="19" name="18" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="21" name="20" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="22" name="21" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="23" name="22" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="24" name="23" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="25" name="24" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="26" name="25" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="27" name="26" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="28" name="27" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="29" name="28" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="30" name="29" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="31" name="30" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="32" name="31" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="811" totalsRowDxfId="810">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14923,41 +15068,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="323" dataDxfId="322" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="321" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="320" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="319" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="318" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="317" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="316" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="315" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="314" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="313" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="312" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="311" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="310" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="309" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="308" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="307" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="306" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="305" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="304" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="303" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="302" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="301" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="300" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="299" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="298" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="297" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="296" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="295" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="294" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="293" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="292" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="291" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="290" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="289" totalsRowDxfId="288" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14971,43 +15116,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="287" dataDxfId="286" totalsRowDxfId="285">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15021,43 +15166,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217" totalsRowDxfId="216">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15071,10 +15216,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="149" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="148" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15086,41 +15231,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="809" dataDxfId="808" totalsRowDxfId="807">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="777" totalsRowDxfId="776"/>
-    <tableColumn id="3" name="2" dataDxfId="775" totalsRowDxfId="774"/>
-    <tableColumn id="4" name="3" dataDxfId="773" totalsRowDxfId="772"/>
-    <tableColumn id="5" name="4" dataDxfId="771" totalsRowDxfId="770"/>
-    <tableColumn id="6" name="5" dataDxfId="769" totalsRowDxfId="768"/>
-    <tableColumn id="7" name="6" dataDxfId="767" totalsRowDxfId="766"/>
-    <tableColumn id="8" name="7" dataDxfId="765" totalsRowDxfId="764"/>
-    <tableColumn id="9" name="8" dataDxfId="763" totalsRowDxfId="762"/>
-    <tableColumn id="10" name="9" dataDxfId="761" totalsRowDxfId="760"/>
-    <tableColumn id="11" name="10" dataDxfId="759" totalsRowDxfId="758"/>
-    <tableColumn id="12" name="11" dataDxfId="757" totalsRowDxfId="756"/>
-    <tableColumn id="13" name="12" dataDxfId="755" totalsRowDxfId="754"/>
-    <tableColumn id="14" name="13" dataDxfId="753" totalsRowDxfId="752"/>
-    <tableColumn id="15" name="14" dataDxfId="751" totalsRowDxfId="750"/>
-    <tableColumn id="16" name="15" dataDxfId="749" totalsRowDxfId="748"/>
-    <tableColumn id="17" name="16" dataDxfId="747" totalsRowDxfId="746"/>
-    <tableColumn id="18" name="17" dataDxfId="745" totalsRowDxfId="744"/>
-    <tableColumn id="19" name="18" dataDxfId="743" totalsRowDxfId="742"/>
-    <tableColumn id="20" name="19" dataDxfId="741" totalsRowDxfId="740"/>
-    <tableColumn id="21" name="20" dataDxfId="739" totalsRowDxfId="738"/>
-    <tableColumn id="22" name="21" dataDxfId="737" totalsRowDxfId="736"/>
-    <tableColumn id="23" name="22" dataDxfId="735" totalsRowDxfId="734"/>
-    <tableColumn id="24" name="23" dataDxfId="733" totalsRowDxfId="732"/>
-    <tableColumn id="25" name="24" dataDxfId="731" totalsRowDxfId="730"/>
-    <tableColumn id="26" name="25" dataDxfId="729" totalsRowDxfId="728"/>
-    <tableColumn id="27" name="26" dataDxfId="727" totalsRowDxfId="726"/>
-    <tableColumn id="28" name="27" dataDxfId="725" totalsRowDxfId="724"/>
-    <tableColumn id="29" name="28" dataDxfId="723" totalsRowDxfId="722"/>
-    <tableColumn id="30" name="29" dataDxfId="721" totalsRowDxfId="720"/>
-    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
-    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="715" totalsRowDxfId="714"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="806" totalsRowDxfId="805" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="804" totalsRowDxfId="803"/>
+    <tableColumn id="3" name="2" dataDxfId="802" totalsRowDxfId="801"/>
+    <tableColumn id="4" name="3" dataDxfId="800" totalsRowDxfId="799"/>
+    <tableColumn id="5" name="4" dataDxfId="798" totalsRowDxfId="797"/>
+    <tableColumn id="6" name="5" dataDxfId="796" totalsRowDxfId="795"/>
+    <tableColumn id="7" name="6" dataDxfId="794" totalsRowDxfId="793"/>
+    <tableColumn id="8" name="7" dataDxfId="792" totalsRowDxfId="791"/>
+    <tableColumn id="9" name="8" dataDxfId="790" totalsRowDxfId="789"/>
+    <tableColumn id="10" name="9" dataDxfId="788" totalsRowDxfId="787"/>
+    <tableColumn id="11" name="10" dataDxfId="786" totalsRowDxfId="785"/>
+    <tableColumn id="12" name="11" dataDxfId="784" totalsRowDxfId="783"/>
+    <tableColumn id="13" name="12" dataDxfId="782" totalsRowDxfId="781"/>
+    <tableColumn id="14" name="13" dataDxfId="780" totalsRowDxfId="779"/>
+    <tableColumn id="15" name="14" dataDxfId="778" totalsRowDxfId="777"/>
+    <tableColumn id="16" name="15" dataDxfId="776" totalsRowDxfId="775"/>
+    <tableColumn id="17" name="16" dataDxfId="774" totalsRowDxfId="773"/>
+    <tableColumn id="18" name="17" dataDxfId="772" totalsRowDxfId="771"/>
+    <tableColumn id="19" name="18" dataDxfId="770" totalsRowDxfId="769"/>
+    <tableColumn id="20" name="19" dataDxfId="768" totalsRowDxfId="767"/>
+    <tableColumn id="21" name="20" dataDxfId="766" totalsRowDxfId="765"/>
+    <tableColumn id="22" name="21" dataDxfId="764" totalsRowDxfId="763"/>
+    <tableColumn id="23" name="22" dataDxfId="762" totalsRowDxfId="761"/>
+    <tableColumn id="24" name="23" dataDxfId="760" totalsRowDxfId="759"/>
+    <tableColumn id="25" name="24" dataDxfId="758" totalsRowDxfId="757"/>
+    <tableColumn id="26" name="25" dataDxfId="756" totalsRowDxfId="755"/>
+    <tableColumn id="27" name="26" dataDxfId="754" totalsRowDxfId="753"/>
+    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="751"/>
+    <tableColumn id="29" name="28" dataDxfId="750" totalsRowDxfId="749"/>
+    <tableColumn id="30" name="29" dataDxfId="748" totalsRowDxfId="747"/>
+    <tableColumn id="31" name=" " dataDxfId="746" totalsRowDxfId="745"/>
+    <tableColumn id="32" name="  " dataDxfId="744" totalsRowDxfId="743"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="742" totalsRowDxfId="741"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15132,43 +15277,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="740" dataDxfId="739" totalsRowDxfId="738">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="704" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="737" totalsRowDxfId="736" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="735" totalsRowDxfId="734"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="733" totalsRowDxfId="732"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="731" totalsRowDxfId="730"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="729" totalsRowDxfId="728"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="727" totalsRowDxfId="726"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="725" totalsRowDxfId="724"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="723" totalsRowDxfId="722"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="721" totalsRowDxfId="720"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="719" totalsRowDxfId="718"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="717" totalsRowDxfId="716"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="715" totalsRowDxfId="714"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="713" totalsRowDxfId="712"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="711" totalsRowDxfId="710"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="709" totalsRowDxfId="708"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="707" totalsRowDxfId="706"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="705" totalsRowDxfId="704"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="673" totalsRowDxfId="672"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15180,45 +15325,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="634" dataDxfId="633" totalsRowDxfId="632">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="671" dataDxfId="670" totalsRowDxfId="669">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="668" totalsRowDxfId="667" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="2"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="600" totalsRowDxfId="1">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="666" totalsRowDxfId="665"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="664" totalsRowDxfId="663"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="606" totalsRowDxfId="605">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="599" totalsRowDxfId="0"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="604" totalsRowDxfId="603"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15230,45 +15375,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="593" dataDxfId="592" totalsRowDxfId="591">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="602" dataDxfId="33" totalsRowDxfId="601">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="590" totalsRowDxfId="589" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="600" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="526" totalsRowDxfId="525">
-      <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15280,43 +15423,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="599" dataDxfId="598" totalsRowDxfId="597">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="596" totalsRowDxfId="595" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="532" totalsRowDxfId="531">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15330,43 +15473,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529" totalsRowDxfId="528">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="527" totalsRowDxfId="526" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="463" totalsRowDxfId="462">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15380,43 +15523,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460" totalsRowDxfId="459">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="458" totalsRowDxfId="457" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="394" totalsRowDxfId="393">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15430,43 +15573,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="392" dataDxfId="391" totalsRowDxfId="390">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="389" totalsRowDxfId="388" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="325" totalsRowDxfId="324">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16982,19 +17125,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17016,19 +17159,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18310,19 +18453,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19676,19 +19819,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19712,19 +19855,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21071,19 +21214,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22383,12 +22526,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="789" priority="16">
+    <cfRule type="expression" dxfId="137" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="788" priority="15">
+    <cfRule type="expression" dxfId="136" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22396,21 +22539,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23742,21 +23885,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23829,8 +23972,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24232,7 +24375,9 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -24279,7 +24424,9 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -24320,7 +24467,9 @@
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -24480,7 +24629,9 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -24638,7 +24789,9 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -24751,7 +24904,9 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -24880,7 +25035,9 @@
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -24986,7 +25143,7 @@
       </c>
       <c r="Y25" s="44">
         <f>SUBTOTAL(103,Апрель[23])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z25" s="44">
         <f>SUBTOTAL(103,Апрель[24])</f>
@@ -25038,21 +25195,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="638" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25123,9 +25280,11 @@
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25461,11 +25620,11 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -25492,22 +25651,21 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="9">
-        <f>COUNTA(Май[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH7" s="29"/>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>4</v>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -25532,22 +25690,21 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="9">
-        <f>COUNTA(Май[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH8" s="29"/>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
+      <c r="B9" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -25572,22 +25729,21 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="9">
-        <f>COUNTA(Май[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>6</v>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -25612,20 +25768,17 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="9">
-        <f>COUNTA(Май[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH10" s="29"/>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>7</v>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -25652,144 +25805,634 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="9">
-        <f>COUNTA(Май[[#This Row],[1]:[31]])</f>
-        <v>0</v>
-      </c>
+      <c r="AH11" s="29"/>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Май Итог</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C25" s="44">
         <f>SUBTOTAL(103,Май[1])</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D25" s="44">
         <f>SUBTOTAL(103,Май[2])</f>
         <v>0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E25" s="44">
         <f>SUBTOTAL(103,Май[3])</f>
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F25" s="44">
         <f>SUBTOTAL(103,Май[4])</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+        <v>9</v>
+      </c>
+      <c r="G25" s="44">
         <f>SUBTOTAL(103,Май[5])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H25" s="44">
         <f>SUBTOTAL(103,Май[6])</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I25" s="44">
         <f>SUBTOTAL(103,Май[7])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J25" s="44">
         <f>SUBTOTAL(103,Май[8])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K25" s="44">
         <f>SUBTOTAL(103,Май[9])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L25" s="44">
         <f>SUBTOTAL(103,Май[10])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M25" s="44">
         <f>SUBTOTAL(103,Май[11])</f>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N25" s="44">
         <f>SUBTOTAL(103,Май[12])</f>
         <v>0</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O25" s="44">
         <f>SUBTOTAL(103,Май[13])</f>
         <v>0</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P25" s="44">
         <f>SUBTOTAL(103,Май[14])</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q25" s="44">
         <f>SUBTOTAL(103,Май[15])</f>
         <v>0</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R25" s="44">
         <f>SUBTOTAL(103,Май[16])</f>
         <v>0</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S25" s="44">
         <f>SUBTOTAL(103,Май[17])</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T25" s="44">
         <f>SUBTOTAL(103,Май[18])</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U25" s="44">
         <f>SUBTOTAL(103,Май[19])</f>
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V25" s="44">
         <f>SUBTOTAL(103,Май[20])</f>
         <v>0</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W25" s="44">
         <f>SUBTOTAL(103,Май[21])</f>
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X25" s="44">
         <f>SUBTOTAL(103,Май[22])</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y25" s="44">
         <f>SUBTOTAL(103,Май[23])</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z25" s="44">
         <f>SUBTOTAL(103,Май[24])</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA25" s="44">
         <f>SUBTOTAL(103,Май[25])</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB25" s="44">
         <f>SUBTOTAL(103,Май[26])</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC25" s="44">
         <f>SUBTOTAL(103,Май[27])</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD25" s="44">
         <f>SUBTOTAL(103,Май[28])</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE25" s="44">
         <f>SUBTOTAL(103,Май[29])</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF25" s="44">
         <f>SUBTOTAL(103,Май[30])</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG25" s="44">
         <f>SUBTOTAL(103,Май[31])</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH25" s="44">
         <f>SUBTOTAL(109,Май[Всего дней])</f>
         <v>0</v>
       </c>
@@ -25803,29 +26446,29 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AG11">
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="598" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="3" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH11">
+  <conditionalFormatting sqref="AH7:AH24">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -25834,7 +26477,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5670947F-8B3C-4A6C-A280-4F5E10811DCE}</x14:id>
+          <x14:id>{A7B5D9E5-108B-4D7A-8668-66A80AD6D226}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -25868,7 +26511,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5670947F-8B3C-4A6C-A280-4F5E10811DCE}">
+          <x14:cfRule type="dataBar" id="{A7B5D9E5-108B-4D7A-8668-66A80AD6D226}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="formula">
@@ -25878,19 +26521,9 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH7:AH11</xm:sqref>
+          <xm:sqref>AH7:AH24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Имена сотрудников'!$B$4:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -26585,19 +27218,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27364,19 +27997,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28143,19 +28776,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28919,19 +29552,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1143,7 +1143,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="892">
+  <dxfs count="882">
     <dxf>
       <font>
         <b val="0"/>
@@ -2198,970 +2198,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4577,6 +3613,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5973,6 +5059,106 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6118,6 +5304,56 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7292,6 +6528,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8462,6 +7748,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9632,6 +8968,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10802,6 +10188,196 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -10815,7 +10391,61 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12035,6 +11665,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -13244,6 +12924,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -14446,6 +14176,76 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14721,6 +14521,106 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -14958,19 +14858,19 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Таблица отсутствия сотрудников" pivot="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="891"/>
-      <tableStyleElement type="headerRow" dxfId="890"/>
-      <tableStyleElement type="totalRow" dxfId="889"/>
-      <tableStyleElement type="firstColumn" dxfId="888"/>
-      <tableStyleElement type="lastColumn" dxfId="887"/>
-      <tableStyleElement type="firstRowStripe" dxfId="886"/>
-      <tableStyleElement type="secondRowStripe" dxfId="885"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="884"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="883"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="882"/>
-      <tableStyleElement type="lastHeaderCell" dxfId="881"/>
-      <tableStyleElement type="firstTotalCell" dxfId="880"/>
-      <tableStyleElement type="lastTotalCell" dxfId="879"/>
+      <tableStyleElement type="wholeTable" dxfId="881"/>
+      <tableStyleElement type="headerRow" dxfId="880"/>
+      <tableStyleElement type="totalRow" dxfId="879"/>
+      <tableStyleElement type="firstColumn" dxfId="878"/>
+      <tableStyleElement type="lastColumn" dxfId="877"/>
+      <tableStyleElement type="firstRowStripe" dxfId="876"/>
+      <tableStyleElement type="secondRowStripe" dxfId="875"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="874"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="873"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="872"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="871"/>
+      <tableStyleElement type="firstTotalCell" dxfId="870"/>
+      <tableStyleElement type="lastTotalCell" dxfId="869"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14985,7 +14885,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="878" dataDxfId="877" totalsRowDxfId="876">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="858" dataDxfId="857" totalsRowDxfId="856">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15022,39 +14922,39 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="875" totalsRowDxfId="874" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="873" totalsRowDxfId="872"/>
-    <tableColumn id="3" name="2" dataDxfId="871" totalsRowDxfId="870"/>
-    <tableColumn id="4" name="3" dataDxfId="869" totalsRowDxfId="868"/>
-    <tableColumn id="5" name="4" dataDxfId="867" totalsRowDxfId="866"/>
-    <tableColumn id="6" name="5" dataDxfId="865" totalsRowDxfId="864"/>
-    <tableColumn id="7" name="6" dataDxfId="863" totalsRowDxfId="862"/>
-    <tableColumn id="8" name="7" dataDxfId="861" totalsRowDxfId="860"/>
-    <tableColumn id="9" name="8" dataDxfId="859" totalsRowDxfId="858"/>
-    <tableColumn id="10" name="9" dataDxfId="857" totalsRowDxfId="856"/>
-    <tableColumn id="11" name="10" dataDxfId="855" totalsRowDxfId="854"/>
-    <tableColumn id="12" name="11" dataDxfId="853" totalsRowDxfId="852"/>
-    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="851" totalsRowDxfId="850"/>
-    <tableColumn id="14" name="13" dataDxfId="849" totalsRowDxfId="848"/>
-    <tableColumn id="15" name="14" dataDxfId="847" totalsRowDxfId="846"/>
-    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="845" totalsRowDxfId="844"/>
-    <tableColumn id="17" name="16" dataDxfId="843" totalsRowDxfId="842"/>
-    <tableColumn id="18" name="17" dataDxfId="841" totalsRowDxfId="840"/>
-    <tableColumn id="19" name="18" dataDxfId="839" totalsRowDxfId="838"/>
-    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="837" totalsRowDxfId="836"/>
-    <tableColumn id="21" name="20" dataDxfId="835" totalsRowDxfId="834"/>
-    <tableColumn id="22" name="21" dataDxfId="833" totalsRowDxfId="832"/>
-    <tableColumn id="23" name="22" dataDxfId="831" totalsRowDxfId="830"/>
-    <tableColumn id="24" name="23" dataDxfId="829" totalsRowDxfId="828"/>
-    <tableColumn id="25" name="24" dataDxfId="827" totalsRowDxfId="826"/>
-    <tableColumn id="26" name="25" dataDxfId="825" totalsRowDxfId="824"/>
-    <tableColumn id="27" name="26" dataDxfId="823" totalsRowDxfId="822"/>
-    <tableColumn id="28" name="27" dataDxfId="821" totalsRowDxfId="820"/>
-    <tableColumn id="29" name="28" dataDxfId="819" totalsRowDxfId="818"/>
-    <tableColumn id="30" name="29" dataDxfId="817" totalsRowDxfId="816"/>
-    <tableColumn id="31" name="30" dataDxfId="815" totalsRowDxfId="814"/>
-    <tableColumn id="32" name="31" dataDxfId="813" totalsRowDxfId="812"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="811" totalsRowDxfId="810">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Чулахов Лев Сергеевич" dataDxfId="855" totalsRowDxfId="854" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="853" totalsRowDxfId="852"/>
+    <tableColumn id="3" name="2" dataDxfId="851" totalsRowDxfId="850"/>
+    <tableColumn id="4" name="3" dataDxfId="849" totalsRowDxfId="848"/>
+    <tableColumn id="5" name="4" dataDxfId="847" totalsRowDxfId="846"/>
+    <tableColumn id="6" name="5" dataDxfId="845" totalsRowDxfId="844"/>
+    <tableColumn id="7" name="6" dataDxfId="843" totalsRowDxfId="842"/>
+    <tableColumn id="8" name="7" dataDxfId="841" totalsRowDxfId="840"/>
+    <tableColumn id="9" name="8" dataDxfId="839" totalsRowDxfId="838"/>
+    <tableColumn id="10" name="9" dataDxfId="837" totalsRowDxfId="836"/>
+    <tableColumn id="11" name="10" dataDxfId="835" totalsRowDxfId="834"/>
+    <tableColumn id="12" name="11" dataDxfId="833" totalsRowDxfId="832"/>
+    <tableColumn id="13" name="12" totalsRowLabel="Н" dataDxfId="831" totalsRowDxfId="830"/>
+    <tableColumn id="14" name="13" dataDxfId="829" totalsRowDxfId="828"/>
+    <tableColumn id="15" name="14" dataDxfId="827" totalsRowDxfId="826"/>
+    <tableColumn id="16" name="15" totalsRowLabel="Н" dataDxfId="825" totalsRowDxfId="824"/>
+    <tableColumn id="17" name="16" dataDxfId="823" totalsRowDxfId="822"/>
+    <tableColumn id="18" name="17" dataDxfId="821" totalsRowDxfId="820"/>
+    <tableColumn id="19" name="18" dataDxfId="819" totalsRowDxfId="818"/>
+    <tableColumn id="20" name="19" totalsRowLabel="Н" dataDxfId="817" totalsRowDxfId="816"/>
+    <tableColumn id="21" name="20" dataDxfId="815" totalsRowDxfId="814"/>
+    <tableColumn id="22" name="21" dataDxfId="813" totalsRowDxfId="812"/>
+    <tableColumn id="23" name="22" dataDxfId="811" totalsRowDxfId="810"/>
+    <tableColumn id="24" name="23" dataDxfId="809" totalsRowDxfId="808"/>
+    <tableColumn id="25" name="24" dataDxfId="807" totalsRowDxfId="806"/>
+    <tableColumn id="26" name="25" dataDxfId="805" totalsRowDxfId="804"/>
+    <tableColumn id="27" name="26" dataDxfId="803" totalsRowDxfId="802"/>
+    <tableColumn id="28" name="27" dataDxfId="801" totalsRowDxfId="800"/>
+    <tableColumn id="29" name="28" dataDxfId="799" totalsRowDxfId="798"/>
+    <tableColumn id="30" name="29" dataDxfId="797" totalsRowDxfId="796"/>
+    <tableColumn id="31" name="30" dataDxfId="795" totalsRowDxfId="794"/>
+    <tableColumn id="32" name="31" dataDxfId="793" totalsRowDxfId="792"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="791" totalsRowDxfId="790">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15068,41 +14968,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="323" dataDxfId="322" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="321" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="320" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="319" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="318" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="317" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="316" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="315" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="314" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="313" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="312" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="311" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="310" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="309" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="308" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="307" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="306" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="305" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="304" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="303" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="302" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="301" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="300" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="299" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="298" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="297" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="296" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="295" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="294" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="293" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="292" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="291" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="290" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="289" totalsRowDxfId="288" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15116,43 +15016,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="287" dataDxfId="286" totalsRowDxfId="285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15166,43 +15066,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217" totalsRowDxfId="216">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15216,10 +15116,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="149" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="148" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15231,41 +15131,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="809" dataDxfId="808" totalsRowDxfId="807">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" dataDxfId="806" totalsRowDxfId="805" dataCellStyle="Сотрудник"/>
-    <tableColumn id="2" name="1" dataDxfId="804" totalsRowDxfId="803"/>
-    <tableColumn id="3" name="2" dataDxfId="802" totalsRowDxfId="801"/>
-    <tableColumn id="4" name="3" dataDxfId="800" totalsRowDxfId="799"/>
-    <tableColumn id="5" name="4" dataDxfId="798" totalsRowDxfId="797"/>
-    <tableColumn id="6" name="5" dataDxfId="796" totalsRowDxfId="795"/>
-    <tableColumn id="7" name="6" dataDxfId="794" totalsRowDxfId="793"/>
-    <tableColumn id="8" name="7" dataDxfId="792" totalsRowDxfId="791"/>
-    <tableColumn id="9" name="8" dataDxfId="790" totalsRowDxfId="789"/>
-    <tableColumn id="10" name="9" dataDxfId="788" totalsRowDxfId="787"/>
-    <tableColumn id="11" name="10" dataDxfId="786" totalsRowDxfId="785"/>
-    <tableColumn id="12" name="11" dataDxfId="784" totalsRowDxfId="783"/>
-    <tableColumn id="13" name="12" dataDxfId="782" totalsRowDxfId="781"/>
-    <tableColumn id="14" name="13" dataDxfId="780" totalsRowDxfId="779"/>
-    <tableColumn id="15" name="14" dataDxfId="778" totalsRowDxfId="777"/>
-    <tableColumn id="16" name="15" dataDxfId="776" totalsRowDxfId="775"/>
-    <tableColumn id="17" name="16" dataDxfId="774" totalsRowDxfId="773"/>
-    <tableColumn id="18" name="17" dataDxfId="772" totalsRowDxfId="771"/>
-    <tableColumn id="19" name="18" dataDxfId="770" totalsRowDxfId="769"/>
-    <tableColumn id="20" name="19" dataDxfId="768" totalsRowDxfId="767"/>
-    <tableColumn id="21" name="20" dataDxfId="766" totalsRowDxfId="765"/>
-    <tableColumn id="22" name="21" dataDxfId="764" totalsRowDxfId="763"/>
-    <tableColumn id="23" name="22" dataDxfId="762" totalsRowDxfId="761"/>
-    <tableColumn id="24" name="23" dataDxfId="760" totalsRowDxfId="759"/>
-    <tableColumn id="25" name="24" dataDxfId="758" totalsRowDxfId="757"/>
-    <tableColumn id="26" name="25" dataDxfId="756" totalsRowDxfId="755"/>
-    <tableColumn id="27" name="26" dataDxfId="754" totalsRowDxfId="753"/>
-    <tableColumn id="28" name="27" dataDxfId="752" totalsRowDxfId="751"/>
-    <tableColumn id="29" name="28" dataDxfId="750" totalsRowDxfId="749"/>
-    <tableColumn id="30" name="29" dataDxfId="748" totalsRowDxfId="747"/>
-    <tableColumn id="31" name=" " dataDxfId="746" totalsRowDxfId="745"/>
-    <tableColumn id="32" name="  " dataDxfId="744" totalsRowDxfId="743"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="742" totalsRowDxfId="741"/>
+    <tableColumn id="1" name="Имя сотрудника" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник"/>
+    <tableColumn id="2" name="1" dataDxfId="777" totalsRowDxfId="776"/>
+    <tableColumn id="3" name="2" dataDxfId="775" totalsRowDxfId="774"/>
+    <tableColumn id="4" name="3" dataDxfId="773" totalsRowDxfId="772"/>
+    <tableColumn id="5" name="4" dataDxfId="771" totalsRowDxfId="770"/>
+    <tableColumn id="6" name="5" dataDxfId="769" totalsRowDxfId="768"/>
+    <tableColumn id="7" name="6" dataDxfId="767" totalsRowDxfId="766"/>
+    <tableColumn id="8" name="7" dataDxfId="765" totalsRowDxfId="764"/>
+    <tableColumn id="9" name="8" dataDxfId="763" totalsRowDxfId="762"/>
+    <tableColumn id="10" name="9" dataDxfId="761" totalsRowDxfId="760"/>
+    <tableColumn id="11" name="10" dataDxfId="759" totalsRowDxfId="758"/>
+    <tableColumn id="12" name="11" dataDxfId="757" totalsRowDxfId="756"/>
+    <tableColumn id="13" name="12" dataDxfId="755" totalsRowDxfId="754"/>
+    <tableColumn id="14" name="13" dataDxfId="753" totalsRowDxfId="752"/>
+    <tableColumn id="15" name="14" dataDxfId="751" totalsRowDxfId="750"/>
+    <tableColumn id="16" name="15" dataDxfId="749" totalsRowDxfId="748"/>
+    <tableColumn id="17" name="16" dataDxfId="747" totalsRowDxfId="746"/>
+    <tableColumn id="18" name="17" dataDxfId="745" totalsRowDxfId="744"/>
+    <tableColumn id="19" name="18" dataDxfId="743" totalsRowDxfId="742"/>
+    <tableColumn id="20" name="19" dataDxfId="741" totalsRowDxfId="740"/>
+    <tableColumn id="21" name="20" dataDxfId="739" totalsRowDxfId="738"/>
+    <tableColumn id="22" name="21" dataDxfId="737" totalsRowDxfId="736"/>
+    <tableColumn id="23" name="22" dataDxfId="735" totalsRowDxfId="734"/>
+    <tableColumn id="24" name="23" dataDxfId="733" totalsRowDxfId="732"/>
+    <tableColumn id="25" name="24" dataDxfId="731" totalsRowDxfId="730"/>
+    <tableColumn id="26" name="25" dataDxfId="729" totalsRowDxfId="728"/>
+    <tableColumn id="27" name="26" dataDxfId="727" totalsRowDxfId="726"/>
+    <tableColumn id="28" name="27" dataDxfId="725" totalsRowDxfId="724"/>
+    <tableColumn id="29" name="28" dataDxfId="723" totalsRowDxfId="722"/>
+    <tableColumn id="30" name="29" dataDxfId="721" totalsRowDxfId="720"/>
+    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
+    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="715" totalsRowDxfId="714"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15277,43 +15177,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="740" dataDxfId="739" totalsRowDxfId="738">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="737" totalsRowDxfId="736" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="704" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="735" totalsRowDxfId="734"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="733" totalsRowDxfId="732"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="731" totalsRowDxfId="730"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="729" totalsRowDxfId="728"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="727" totalsRowDxfId="726"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="725" totalsRowDxfId="724"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="723" totalsRowDxfId="722"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="721" totalsRowDxfId="720"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="719" totalsRowDxfId="718"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="717" totalsRowDxfId="716"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="715" totalsRowDxfId="714"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="713" totalsRowDxfId="712"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="711" totalsRowDxfId="710"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="709" totalsRowDxfId="708"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="707" totalsRowDxfId="706"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="705" totalsRowDxfId="704"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="673" totalsRowDxfId="672"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="641" totalsRowDxfId="640"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15325,45 +15225,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="671" dataDxfId="670" totalsRowDxfId="669">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="634" dataDxfId="633" totalsRowDxfId="632">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="668" totalsRowDxfId="667" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="630" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="666" totalsRowDxfId="665"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="664" totalsRowDxfId="663"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="606" totalsRowDxfId="605">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="597" totalsRowDxfId="596"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="595" totalsRowDxfId="594"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="593" totalsRowDxfId="592"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="591" totalsRowDxfId="590"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="588"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="586"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="584"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="582"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="580"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="578"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="569" totalsRowDxfId="568">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="604" totalsRowDxfId="603"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="567" totalsRowDxfId="566"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15375,43 +15275,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="602" dataDxfId="33" totalsRowDxfId="601">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="560" dataDxfId="559" totalsRowDxfId="558">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="600" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="557" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="525" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15423,43 +15323,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="599" dataDxfId="598" totalsRowDxfId="597">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="596" totalsRowDxfId="595" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="532" totalsRowDxfId="531">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15473,43 +15373,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529" totalsRowDxfId="528">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="527" totalsRowDxfId="526" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="463" totalsRowDxfId="462">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15523,43 +15423,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460" totalsRowDxfId="459">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="458" totalsRowDxfId="457" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="394" totalsRowDxfId="393">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15573,43 +15473,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="392" dataDxfId="391" totalsRowDxfId="390">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="389" totalsRowDxfId="388" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="325" totalsRowDxfId="324">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17125,19 +17025,19 @@
     <cfRule type="expression" priority="7" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="12" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="13" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="14" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="15" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="16" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17159,19 +17059,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="2" stopIfTrue="1">
       <formula>C24=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="3" stopIfTrue="1">
       <formula>C24=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="4" stopIfTrue="1">
       <formula>C24=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="5" stopIfTrue="1">
       <formula>C24=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="6" stopIfTrue="1">
       <formula>C24=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18453,19 +18353,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19819,19 +19719,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19855,19 +19755,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21214,19 +21114,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="80" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22526,12 +22426,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="137" priority="16">
+    <cfRule type="expression" dxfId="789" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="136" priority="15">
+    <cfRule type="expression" dxfId="788" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22539,21 +22439,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23885,21 +23785,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="129" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25195,21 +25095,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25283,7 +25183,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25714,7 +25614,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -25753,7 +25655,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -25905,7 +25809,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -25942,7 +25848,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -26197,9 +26105,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="50"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26283,7 +26189,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -26322,7 +26230,7 @@
       </c>
       <c r="F25" s="44">
         <f>SUBTOTAL(103,Май[4])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="44">
         <f>SUBTOTAL(103,Май[5])</f>
@@ -26362,7 +26270,7 @@
       </c>
       <c r="P25" s="44">
         <f>SUBTOTAL(103,Май[14])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="44">
         <f>SUBTOTAL(103,Май[15])</f>
@@ -26450,21 +26358,21 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27218,19 +27126,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="115" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27997,19 +27905,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28776,19 +28684,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29552,19 +29460,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -25183,7 +25183,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25547,7 +25547,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -25579,14 +25581,18 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -25620,14 +25626,18 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -25661,14 +25671,18 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -25705,7 +25719,9 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -25774,14 +25790,18 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="48"/>
       <c r="AD13" s="1"/>
@@ -25822,7 +25842,9 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="1"/>
@@ -26013,7 +26035,9 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="48"/>
       <c r="AD19" s="1"/>
@@ -26089,7 +26113,9 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="48"/>
       <c r="AD21" s="1"/>
@@ -26119,14 +26145,18 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="AA22" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="48"/>
       <c r="AD22" s="1"/>
@@ -26156,14 +26186,18 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="48"/>
       <c r="AD23" s="1"/>
@@ -26195,14 +26229,18 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="48"/>
       <c r="AD24" s="1"/>
@@ -26286,7 +26324,7 @@
       </c>
       <c r="T25" s="44">
         <f>SUBTOTAL(103,Май[18])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U25" s="44">
         <f>SUBTOTAL(103,Май[19])</f>
@@ -26314,7 +26352,7 @@
       </c>
       <c r="AA25" s="44">
         <f>SUBTOTAL(103,Май[25])</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB25" s="44">
         <f>SUBTOTAL(103,Май[26])</f>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -927,7 +927,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1075,12 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,6 +2116,1071 @@
       </font>
       <numFmt numFmtId="166" formatCode="0;0;"/>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -10364,12 +11423,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -10448,222 +11501,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -10671,976 +11532,103 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -14968,41 +14956,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="257" dataDxfId="256" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="203" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="202" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="201" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="200" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="199" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="198" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="197" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="196" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="195" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="194" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="193" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="192" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="191" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="190" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="255" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="254" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="253" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="252" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="251" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="250" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="249" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="248" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="247" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="246" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="245" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="244" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="243" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="242" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="241" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="240" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="239" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="238" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="237" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="236" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="235" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="234" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="233" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="232" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="231" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="230" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="229" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="228" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="227" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="226" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="225" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="224" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="223" totalsRowDxfId="222" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15016,43 +15004,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="211" dataDxfId="210" totalsRowDxfId="209">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="208" totalsRowDxfId="207" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="186" totalsRowDxfId="185"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="174" totalsRowDxfId="173"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15066,43 +15054,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="137" dataDxfId="136" totalsRowDxfId="135">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15116,10 +15104,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="68" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="67" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15227,43 +15215,43 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="634" dataDxfId="633" totalsRowDxfId="632">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="630" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="597" totalsRowDxfId="596"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="595" totalsRowDxfId="594"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="593" totalsRowDxfId="592"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="591" totalsRowDxfId="590"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="588"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="586"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="584"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="582"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="580"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="578"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="569" totalsRowDxfId="568">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="2"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="601" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="567" totalsRowDxfId="566"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="600" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15275,43 +15263,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="560" dataDxfId="559" totalsRowDxfId="558">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="594" dataDxfId="593" totalsRowDxfId="592">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="557" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="591" totalsRowDxfId="66" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="525" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="65"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="64"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="63"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="62"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="61"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="60"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="59"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="58"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="57"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="56"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="55"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="54"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="53"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="52"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="51"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="50"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="49"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="48"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="47"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="46"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="45"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="569" totalsRowDxfId="44"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="43"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="567" totalsRowDxfId="42"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="41"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="565" totalsRowDxfId="40"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="39"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="563" totalsRowDxfId="38"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="37"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="561" totalsRowDxfId="36"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="35"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="559" totalsRowDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15323,43 +15311,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="553" dataDxfId="552" totalsRowDxfId="551">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="550" totalsRowDxfId="549" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="452" totalsRowDxfId="451">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="525"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="524" totalsRowDxfId="523"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="522" totalsRowDxfId="521"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="520" totalsRowDxfId="519"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="518" totalsRowDxfId="517"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="516" totalsRowDxfId="515"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="486" totalsRowDxfId="485">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15373,43 +15361,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="445" dataDxfId="444" totalsRowDxfId="443">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="479" dataDxfId="478" totalsRowDxfId="477">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="442" totalsRowDxfId="441" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="476" totalsRowDxfId="475" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="378" totalsRowDxfId="377">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="412" totalsRowDxfId="411">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15423,43 +15411,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="371" dataDxfId="370" totalsRowDxfId="369">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="405" dataDxfId="404" totalsRowDxfId="403">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="368" totalsRowDxfId="367" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="402" totalsRowDxfId="401" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="304" totalsRowDxfId="303">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="378" totalsRowDxfId="377"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="376" totalsRowDxfId="375"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="374" totalsRowDxfId="373"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="372" totalsRowDxfId="371"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="370" totalsRowDxfId="369"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="368" totalsRowDxfId="367"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="338" totalsRowDxfId="337">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15473,43 +15461,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="297" dataDxfId="296" totalsRowDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="331" dataDxfId="330" totalsRowDxfId="329">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="294" totalsRowDxfId="293" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="328" totalsRowDxfId="327" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="264" totalsRowDxfId="263">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15782,42 +15770,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -15828,39 +15816,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <v>2022</v>
       </c>
@@ -17159,34 +17147,34 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17195,39 +17183,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -18353,19 +18341,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18462,28 +18450,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18492,39 +18480,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -19719,19 +19707,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19755,19 +19743,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="182" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19852,42 +19840,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19896,39 +19884,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -21114,19 +21102,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:V24 X7:AG24">
-    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21353,42 +21341,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21397,39 +21385,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -22552,42 +22540,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22596,39 +22584,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -23872,8 +23860,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AH24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23898,42 +23886,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23942,39 +23930,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -24211,7 +24199,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="49"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -24248,7 +24236,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="49"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -24293,7 +24281,9 @@
         <v>66</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="49"/>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -24342,7 +24332,9 @@
         <v>67</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="49"/>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -24385,7 +24377,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -24422,7 +24414,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -24459,7 +24451,9 @@
         <v>70</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -24502,7 +24496,9 @@
         <v>71</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -24547,7 +24543,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -24584,7 +24580,9 @@
         <v>73</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -24623,7 +24621,9 @@
         <v>74</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -24664,7 +24664,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -24707,7 +24707,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -24744,7 +24744,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="50"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -24781,7 +24781,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -24822,7 +24822,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -24863,7 +24863,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -24904,7 +24904,9 @@
         <v>86</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -24957,9 +24959,9 @@
         <f>SUBTOTAL(103,Апрель[1])</f>
         <v>0</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="49">
         <f>SUBTOTAL(103,Апрель[2])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25" s="44">
         <f>SUBTOTAL(103,Апрель[3])</f>
@@ -25091,7 +25093,7 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+  <conditionalFormatting sqref="AF7:AG24 C7:AD24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
@@ -25099,7 +25101,7 @@
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+  <conditionalFormatting sqref="AF7:AG24 C7:AD24">
     <cfRule type="expression" dxfId="638" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
@@ -25182,8 +25184,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25208,42 +25210,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25252,39 +25254,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -25524,7 +25526,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="49"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -25552,10 +25554,14 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="AG7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AH7" s="29"/>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25563,7 +25569,9 @@
         <v>65</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="49"/>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>81</v>
@@ -25595,10 +25603,14 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AH8" s="29"/>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25606,7 +25618,9 @@
         <v>66</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="49"/>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>81</v>
@@ -25640,10 +25654,14 @@
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AH9" s="29"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25651,7 +25669,9 @@
         <v>67</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="49"/>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>81</v>
@@ -25688,7 +25708,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AH10" s="29"/>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25696,7 +25718,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -25735,7 +25757,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -25772,7 +25794,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>81</v>
@@ -25807,7 +25829,9 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25815,7 +25839,9 @@
         <v>71</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>81</v>
@@ -25858,7 +25884,9 @@
         <v>72</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -25889,7 +25917,9 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25897,7 +25927,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -25923,10 +25953,14 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="48"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25934,7 +25968,7 @@
         <v>74</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>81</v>
@@ -25973,7 +26007,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>81</v>
@@ -26012,7 +26046,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -26051,7 +26085,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="50"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -26077,7 +26111,9 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="48"/>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -26088,7 +26124,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>81</v>
@@ -26121,7 +26157,9 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AG21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -26129,7 +26167,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -26154,9 +26192,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="48"/>
       <c r="AD22" s="1"/>
@@ -26170,7 +26206,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -26203,7 +26239,9 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -26211,7 +26249,9 @@
         <v>86</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -26243,10 +26283,14 @@
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="48"/>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="AG24" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -26260,7 +26304,7 @@
       </c>
       <c r="D25" s="44">
         <f>SUBTOTAL(103,Май[2])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" s="44">
         <f>SUBTOTAL(103,Май[3])</f>
@@ -26352,7 +26396,7 @@
       </c>
       <c r="AA25" s="44">
         <f>SUBTOTAL(103,Май[25])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="44">
         <f>SUBTOTAL(103,Май[26])</f>
@@ -26364,7 +26408,7 @@
       </c>
       <c r="AD25" s="44">
         <f>SUBTOTAL(103,Май[28])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE25" s="44">
         <f>SUBTOTAL(103,Май[29])</f>
@@ -26376,7 +26420,7 @@
       </c>
       <c r="AG25" s="44">
         <f>SUBTOTAL(103,Май[31])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH25" s="44">
         <f>SUBTOTAL(109,Май[Всего дней])</f>
@@ -26392,25 +26436,25 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
+  <conditionalFormatting sqref="AF7:AG24 C7:AD24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:AD24 AF7:AG24">
-    <cfRule type="expression" dxfId="564" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="AF7:AG24 C7:AD24">
+    <cfRule type="expression" dxfId="598" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26507,42 +26551,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26551,39 +26595,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27164,19 +27208,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="524" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27283,42 +27327,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27327,39 +27371,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -27943,19 +27987,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="450" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28062,42 +28106,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -28106,39 +28150,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -28722,19 +28766,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="376" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28841,42 +28885,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -28885,39 +28929,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2022</v>
@@ -29498,19 +29542,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="302" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Октябрь.xlsx
+++ b/Октябрь.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1137,7 +1137,7 @@
     <cellStyle name="Финансовый [0]" xfId="29" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="33" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="882">
+  <dxfs count="897">
     <dxf>
       <font>
         <b val="0"/>
@@ -2116,9 +2116,9 @@
       </font>
       <numFmt numFmtId="166" formatCode="0;0;"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2194,12 +2194,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -3256,6 +3250,2080 @@
         <top/>
         <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" inden